--- a/tracklist.xlsx
+++ b/tracklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21942" windowHeight="9737" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12222" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,12 @@
     <sheet name="duration and representation" sheetId="5" r:id="rId5"/>
     <sheet name="demographics" sheetId="6" r:id="rId6"/>
     <sheet name="generation" sheetId="7" r:id="rId7"/>
+    <sheet name="genres" sheetId="8" r:id="rId8"/>
+    <sheet name="python analyses" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="300">
   <si>
     <t>Song</t>
   </si>
@@ -925,6 +927,39 @@
   </si>
   <si>
     <t>Chile</t>
+  </si>
+  <si>
+    <t>Pre-Metallica</t>
+  </si>
+  <si>
+    <t>RTL</t>
+  </si>
+  <si>
+    <t>Justice</t>
+  </si>
+  <si>
+    <t>Metallica</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Reload</t>
+  </si>
+  <si>
+    <t>St. Anger</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Hardwired</t>
+  </si>
+  <si>
+    <t>Indie rock, punk rock, pop punk, garage punk, indie pop</t>
+  </si>
+  <si>
+    <t>pop, rock, folk, hip hop</t>
   </si>
 </sst>
 </file>
@@ -937,7 +972,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,9 +981,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="var(--jp-code-font-family)"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1104,12 +1152,72 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.75"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD94C45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF533412"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1126,12 +1234,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F7F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,12 +1276,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,167 +1594,186 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1667,160 +1782,157 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1876,6 +1988,12 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00D94C45"/>
+      <color rgb="00533412"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -10956,7 +11074,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6328410" y="2306320"/>
+        <a:off x="6607810" y="2306320"/>
         <a:ext cx="6577330" cy="3853180"/>
       </xdr:xfrm>
       <a:graphic>
@@ -11002,796 +11120,796 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="66">
   <r>
-    <s v="Enter Sandman"/>
-    <d v="1899-12-30T04:24:00"/>
-    <s v="F"/>
-    <s v="English"/>
-    <s v="Alessia Cara"/>
-    <s v="pop, r&amp;b"/>
-    <s v="Canada"/>
-    <n v="2009"/>
-    <s v="Millennial (1996)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="The Warning"/>
-    <s v="rock, hard rock"/>
-    <s v="Mexico"/>
-    <n v="2013"/>
-    <s v="Generation Z (2000-2004)"/>
-    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Enter Sandman"/>
-    <d v="1899-12-30T05:46:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Mac DeMarco"/>
-    <s v="indie rock, indie pop, psychedelic pop, jangle pop, slacker rock"/>
-    <s v="Canada"/>
-    <n v="2008"/>
-    <s v="Millennial (1990)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Enter Sandman"/>
-    <d v="1899-12-30T03:51:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Ghost"/>
-    <s v="hard rock, heavy metal, arena rock, pop rock, progressive rock"/>
-    <s v="Sweden"/>
-    <n v="2006"/>
-    <s v="Millennial (Tobias Forge - 1981)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Enter Sandman"/>
-    <d v="1899-12-30T04:53:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Juanes"/>
-    <s v="Latin rock, rock en español, Latin pop, cumbia, hard rock, heavy metal, thrash metal"/>
-    <s v="Colombia"/>
-    <n v="1988"/>
-    <s v="Generation X (1972)"/>
-    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Enter Sandman"/>
-    <d v="1899-12-30T05:34:00"/>
-    <s v="F"/>
-    <s v="English"/>
-    <s v="Rina Sawayama"/>
-    <s v="pop, rock, r&amp;b"/>
-    <s v="Japan, England"/>
-    <n v="2013"/>
-    <s v="Millennial (1990)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Enter Sandman"/>
-    <d v="1899-12-30T05:34:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Weezer"/>
-    <s v="alternative rock, power pop, pop rock, indie rock, pop-punk, geek rock, emo"/>
-    <s v="United States"/>
-    <n v="1992"/>
-    <s v="Generation X (1965-1971)"/>
-    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Sad but True"/>
-    <d v="1899-12-30T03:51:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Sam Fender"/>
-    <s v="rock, indie rock, pop rock, heartland rock"/>
-    <s v="England"/>
-    <n v="2013"/>
-    <s v="Millennial (1994)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Sad but True"/>
-    <d v="1899-12-30T04:30:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Jason Isbell and the 400 Unit"/>
-    <s v="Americana, folk, Southern rock"/>
-    <s v="United States"/>
-    <n v="1995"/>
-    <s v="Generation X (1979)"/>
-    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Sad but True"/>
-    <d v="1899-12-30T04:31:00"/>
-    <s v="M, F"/>
-    <s v="English, Spanish"/>
-    <s v="Mexican Institute of Sound"/>
-    <s v="Electronic, alternative rock, alternative dance, electro, experimental, Mexican music"/>
-    <s v="Mexico"/>
-    <n v="2004"/>
-    <s v="Generation X (1975)"/>
-    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="La Perla"/>
-    <m/>
-    <s v="Colombia"/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="Gera MX"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Sad but True"/>
-    <d v="1899-12-30T05:29:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Royal Blood"/>
-    <s v="hard rock, blues rock, garage rock"/>
-    <s v="England"/>
-    <n v="2011"/>
-    <s v="Millennial (1988-1990)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Sad but True"/>
-    <d v="1899-12-30T04:12:00"/>
-    <s v="F"/>
-    <s v="English"/>
-    <s v="St. Vincent"/>
-    <s v="rock, pop, art rock, indie rock"/>
-    <s v="United States"/>
-    <n v="2003"/>
-    <s v="Millennial (1982)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Sad but True"/>
-    <d v="1899-12-30T05:23:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="White Reaper"/>
-    <s v="hard rock, garage rock, garage punk, power pop, glam rock"/>
-    <s v="United States"/>
-    <n v="2012"/>
-    <s v="Millennial (?)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Sad but True"/>
-    <d v="1899-12-30T04:03:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="YB"/>
-    <s v="rock, k-rock"/>
-    <s v="South Korea"/>
-    <n v="1996"/>
-    <s v="Generation X (Yoon Do-hyun - 1972)"/>
-    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Holier than Thou"/>
-    <d v="1899-12-30T05:10:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Biffy Clyro"/>
-    <s v="alternative rock, progressive rock, experimental rock, alternative metal, pop rock, post-hardcore, art rock, post-grunge"/>
-    <s v="Scotland"/>
-    <n v="1995"/>
-    <s v="Generation X (1979-1980)"/>
-    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Holier than Thou"/>
-    <d v="1899-12-30T02:26:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="The Chats"/>
-    <s v="punk rock, hardcore punk, garage punk"/>
-    <s v="Australia"/>
-    <n v="2016"/>
-    <s v="Generation Z (1999?)"/>
-    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Holier than Thou"/>
-    <d v="1899-12-30T03:04:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Off!"/>
-    <s v="hardcore punk"/>
-    <s v="United States"/>
-    <s v="1978 (technically) but band/supergroup itself, 2009"/>
-    <s v="Boomers / Generation X (Keith Morris - 1955)"/>
-    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Holier than Thou"/>
-    <d v="1899-12-30T03:56:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="PUP"/>
-    <s v="punk rock, hardcore punk, pop punk"/>
-    <s v="Canada"/>
-    <n v="2010"/>
-    <s v="Millennial (?)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Holier than Thou"/>
-    <d v="1899-12-30T04:11:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Corey Taylor"/>
-    <s v="Nu metal, alternative metal, groove metal, heavy metal, hard rock, post-grunge"/>
-    <s v="United States"/>
-    <n v="1992"/>
-    <s v="Generation X (1973)"/>
-    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="The Unforgiven"/>
-    <d v="1899-12-30T05:54:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Cage the Elephant"/>
-    <s v="alternative rock, indie rock, psychedelic rock, garage rock, punk blues, post-punk"/>
-    <s v="United States"/>
-    <n v="2006"/>
-    <s v="Millennial (1982-83)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="The Unforgiven"/>
-    <d v="1899-12-30T04:21:00"/>
-    <s v="M"/>
-    <s v="English, Hindi"/>
-    <s v="Vishal Dadlani"/>
-    <s v="electronic rock, bollywood"/>
-    <s v="India"/>
-    <n v="1994"/>
-    <s v="Generation X (1973)"/>
-    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="Divine"/>
-    <s v="gully rap, hip hop"/>
-    <s v="India"/>
-    <n v="2010"/>
-    <s v="Millennial (1990)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="Shor Police"/>
-    <s v="Indian film pop, pop, bollywood"/>
-    <s v="India"/>
-    <n v="1999"/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="The Unforgiven"/>
-    <d v="1899-12-30T04:47:00"/>
-    <s v="F"/>
-    <s v="English"/>
-    <s v="Diet Cig"/>
-    <s v=" Indie rock, punk rock, pop punk, garage punk, indie pop"/>
-    <s v="United States"/>
-    <n v="2014"/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="The Unforgiven"/>
-    <d v="1899-12-30T04:37:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Flatbush Zombies"/>
-    <s v="East Coast hip hop, psychedelic rap, alternative hip hop"/>
-    <s v="United States"/>
-    <n v="2010"/>
-    <s v="Millennial (1988-1990)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="DJ Scratch"/>
-    <s v="hip hop"/>
-    <s v="United States"/>
-    <n v="1985"/>
-    <s v="Generation X (1968)"/>
-    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="The Unforgiven"/>
-    <d v="1899-12-30T04:06:00"/>
-    <s v="F"/>
-    <s v="English, Spanish"/>
-    <s v="Ha*Ash"/>
-    <s v="Country pop, electropop, funk, Latin pop, pop rock"/>
-    <s v="United States"/>
-    <n v="2002"/>
-    <s v="Millennial (1985-87)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="The Unforgiven"/>
-    <d v="1899-12-30T04:01:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="José Madero"/>
-    <s v="alternative rock, pop punk, punk rock, emo, skate punk, hard rock"/>
-    <s v="Mexico"/>
-    <n v="1996"/>
-    <s v="Generation X (1980)"/>
-    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="The Unforgiven"/>
-    <d v="1899-12-30T05:34:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Moses Sumney"/>
-    <s v="indie rock, electro-soul, folk, art rock, baroque pop"/>
-    <s v="United States"/>
-    <n v="2014"/>
-    <s v="Millennial (1992)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Wherever I May Roam"/>
-    <d v="1899-12-30T02:39:00"/>
-    <s v="M"/>
-    <s v="Spanish"/>
-    <s v="J Balvin"/>
-    <s v="reggaeton, urbano, latin pop, latin trap"/>
-    <s v="Colombia"/>
-    <n v="2004"/>
-    <s v="Millennial (1985)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Wherever I May Roam"/>
-    <d v="1899-12-30T03:07:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Chase &amp; Status"/>
-    <s v="electronic, drum and bass, big beat, hip hop"/>
-    <s v="England"/>
-    <n v="2003"/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="Backroad Gee"/>
-    <s v="grime, hip hop"/>
-    <s v="England"/>
-    <n v="2019"/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Wherever I May Roam"/>
-    <d v="1899-12-30T03:57:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="The Neptunes"/>
-    <s v="hip hop, r&amp;b, pop"/>
-    <s v="United States"/>
-    <n v="1992"/>
-    <s v="Generation X (1971-74)"/>
-    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Wherever I May Roam"/>
-    <d v="1899-12-30T06:45:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Jon Pardi"/>
-    <s v="country, neotraditional country"/>
-    <s v="United States"/>
-    <n v="2012"/>
-    <s v="Millennial (1985)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Don't Tread on Else Matters"/>
-    <d v="1899-12-30T05:54:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="SebastiAn"/>
-    <s v="electro house, electro, house, glitch, experimental"/>
-    <s v="France"/>
-    <n v="2005"/>
-    <s v="Millennial (1981)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Don't Tread on Me"/>
-    <d v="1899-12-30T04:14:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Portugal. The Man"/>
-    <s v="alternative rock, psychedelic rock, psychedelic pop, experimental rock, indie rock"/>
-    <s v="United States"/>
-    <n v="2004"/>
-    <s v="Millennial (1981)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="Aaron Beam"/>
-    <s v="stoner rock, sludge metal"/>
-    <s v="United States"/>
-    <n v="2005"/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Don't Tread on Me"/>
-    <d v="1899-12-30T03:39:00"/>
-    <s v="M"/>
-    <s v="English"/>
-    <s v="Volbeat"/>
-    <s v="heavy metal, hard rock, rockabilly, psychobilly, groove metal, rock and roll"/>
-    <s v="Denmark"/>
-    <n v="2001"/>
-    <s v="Generation X (1970-75)"/>
-    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Through the Never"/>
-    <d v="1899-12-30T04:07:00"/>
-    <s v="M"/>
-    <s v="Mongolian"/>
-    <s v="The Hu"/>
-    <s v="folk metal"/>
-    <s v="Mongolia"/>
-    <n v="2016"/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Through the Never"/>
-    <d v="1899-12-30T03:06:00"/>
-    <s v="F"/>
-    <s v="English"/>
-    <s v="Tomi Owó"/>
-    <s v="nigerian pop, alte, r&amp;b"/>
-    <s v="Nigeria"/>
-    <n v="2017"/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Nothing Else Matters"/>
-    <d v="1899-12-30T04:35:00"/>
-    <s v="F"/>
-    <s v="English"/>
-    <s v="Phoebe Bridgers"/>
-    <s v="indie rock, indie folk, indie pop, emo-folk"/>
-    <s v="United States"/>
-    <n v="2007"/>
-    <s v="Millennial (1994)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Nothing Else Matters"/>
-    <d v="1899-12-30T06:37:00"/>
-    <s v="F"/>
-    <s v="English"/>
-    <s v="Miley Cyrus"/>
-    <s v="pop, rock, country"/>
-    <s v="United States"/>
-    <n v="2001"/>
-    <s v="Millennial (1992)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="Watt"/>
-    <s v="rock"/>
-    <s v="United States"/>
-    <n v="2007"/>
-    <s v="Millennial (1990)"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="Elton John"/>
-    <s v="rock, pop rock, glam rock, soft rock, blues"/>
-    <s v="England"/>
-    <n v="1962"/>
-    <s v="Boomer (1947)"/>
-    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="Yo-Yo Ma"/>
-    <s v="classical"/>
-    <s v="United States"/>
-    <n v="1961"/>
-    <s v="Boomer (1955)"/>
-    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="Robert Trujillo"/>
-    <s v="heavy metal, thrash metal, funk metal, crossover thrash"/>
-    <s v="United States"/>
-    <n v="1978"/>
-    <s v="Boomer (1964)"/>
-    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="Chad Smith"/>
-    <s v="funk rock, alternative rock, hard rock"/>
-    <s v="United States"/>
-    <n v="1977"/>
-    <s v="Boomer (1961)"/>
-    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Nothing Else Matters"/>
-    <d v="1899-12-30T05:09:00"/>
-    <m/>
-    <m/>
-    <s v="Dave Gahan"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Nothing Else Matters"/>
-    <d v="1899-12-30T04:31:00"/>
-    <m/>
-    <m/>
-    <s v="Mickey Guyton"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Nothing Else Matters"/>
-    <d v="1899-12-30T03:01:00"/>
-    <m/>
-    <m/>
-    <s v="Dermot Kennedy"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Nothing Else Matters"/>
-    <d v="1899-12-30T05:56:00"/>
-    <m/>
-    <m/>
-    <s v="Mon Laferte"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Nothing Else Matters"/>
-    <d v="1899-12-30T05:12:00"/>
-    <m/>
-    <m/>
-    <s v="Igor Levit"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Nothing Else Matters"/>
-    <d v="1899-12-30T03:26:00"/>
-    <m/>
-    <m/>
-    <s v="My Morning Jacket"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Nothing Else Matters"/>
-    <d v="1899-12-30T03:49:00"/>
-    <m/>
-    <m/>
-    <s v="PG Roxette"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Nothing Else Matters"/>
-    <d v="1899-12-30T06:53:00"/>
-    <m/>
-    <m/>
-    <s v="Darius Rucker"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Nothing Else Matters"/>
-    <d v="1899-12-30T08:15:00"/>
-    <m/>
-    <m/>
-    <s v="Chris Stapleton"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Nothing Else Matters"/>
-    <d v="1899-12-30T06:24:00"/>
-    <m/>
-    <m/>
-    <s v="Tresor"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="Of Wolf and Man"/>
-    <d v="1899-12-30T03:24:00"/>
-    <m/>
-    <m/>
-    <s v="Goodnight, Texas"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="The God That Failed"/>
-    <d v="1899-12-30T03:56:00"/>
-    <m/>
-    <m/>
-    <s v="Idles"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="The God That Failed"/>
-    <d v="1899-12-30T04:04:00"/>
-    <m/>
-    <m/>
-    <s v="Imelda May"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="My Friend of Misery"/>
-    <d v="1899-12-30T03:31:00"/>
-    <m/>
-    <m/>
-    <s v="Cherry Glazerr"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="My Friend of Misery"/>
-    <d v="1899-12-30T04:25:00"/>
-    <m/>
-    <m/>
-    <s v="Iz茂a"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="My Friend of Misery"/>
-    <d v="1899-12-30T06:47:00"/>
-    <m/>
-    <m/>
-    <s v="Kamasi Washington"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <s v="The Struggle Within"/>
-    <d v="1899-12-30T04:00:00"/>
-    <m/>
-    <m/>
-    <s v="Rodrigo y Gabriela"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4294967295"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -12177,2292 +12295,2292 @@
   <sheetPr/>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" topLeftCell="E50" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <cols>
-    <col min="1" max="1" width="36.6936936936937" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.4594594594595" style="21" customWidth="1"/>
-    <col min="3" max="3" width="21.0720720720721" style="21" customWidth="1"/>
-    <col min="4" max="4" width="14.9189189189189" style="21" customWidth="1"/>
-    <col min="5" max="7" width="25.5315315315315" style="21" customWidth="1"/>
-    <col min="8" max="8" width="34.0720720720721" style="21" customWidth="1"/>
-    <col min="9" max="9" width="24.0720720720721" style="21" customWidth="1"/>
-    <col min="10" max="10" width="15.7657657657658" style="21" customWidth="1"/>
-    <col min="11" max="11" width="23.6126126126126" style="22" customWidth="1"/>
-    <col min="12" max="12" width="27.3063063063063" style="22" customWidth="1"/>
-    <col min="13" max="16383" width="9" style="22"/>
+    <col min="1" max="1" width="36.6936936936937" style="35" customWidth="1"/>
+    <col min="2" max="2" width="16.4594594594595" style="35" customWidth="1"/>
+    <col min="3" max="3" width="21.0720720720721" style="35" customWidth="1"/>
+    <col min="4" max="4" width="14.9189189189189" style="35" customWidth="1"/>
+    <col min="5" max="7" width="25.5315315315315" style="35" customWidth="1"/>
+    <col min="8" max="8" width="34.0720720720721" style="35" customWidth="1"/>
+    <col min="9" max="9" width="24.0720720720721" style="35" customWidth="1"/>
+    <col min="10" max="10" width="15.7657657657658" style="35" customWidth="1"/>
+    <col min="11" max="11" width="23.6126126126126" style="36" customWidth="1"/>
+    <col min="12" max="12" width="27.3063063063063" style="36" customWidth="1"/>
+    <col min="13" max="16383" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" spans="1:12">
-      <c r="A1" s="23" t="s">
+    <row r="1" s="33" customFormat="1" spans="1:12">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" spans="1:12">
-      <c r="A2" s="24" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:12">
+      <c r="A2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="39">
         <v>0.183333333333333</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="38">
         <v>2009</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="19" t="str">
+      <c r="L2" s="3" t="str">
         <f t="shared" ref="L2:L68" si="0">LEFT(K2,FIND("(",K2)-2)</f>
         <v>Millennial</v>
       </c>
     </row>
-    <row r="3" s="19" customFormat="1" spans="1:12">
-      <c r="A3" s="27"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="27" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:12">
+      <c r="A3" s="41"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="38">
         <v>2013</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="19" t="str">
+      <c r="L3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation Z</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="43">
         <v>0.240277777777778</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="35">
         <v>2008</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="19" t="str">
+      <c r="L4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
-    <row r="5" s="20" customFormat="1" ht="29.15" spans="1:12">
-      <c r="A5" s="30" t="s">
+    <row r="5" s="34" customFormat="1" ht="29.15" spans="1:12">
+      <c r="A5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="45">
         <v>0.160416666666667</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="44">
         <v>2006</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="19" t="str">
+      <c r="L5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="6" ht="43.7" spans="1:12">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="43">
         <v>0.203472222222222</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="35">
         <v>1988</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="19" t="str">
+      <c r="L6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
     </row>
-    <row r="7" s="20" customFormat="1" spans="1:12">
-      <c r="A7" s="30" t="s">
+    <row r="7" s="34" customFormat="1" spans="1:12">
+      <c r="A7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="45">
         <v>0.231944444444444</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="44">
         <v>2013</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="19" t="str">
+      <c r="L7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="8" ht="29.15" spans="1:12">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="43">
         <v>0.231944444444444</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22" t="s">
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="35">
         <v>1992</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="19" t="str">
+      <c r="L8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
     </row>
-    <row r="9" s="20" customFormat="1" ht="29.15" spans="1:12">
-      <c r="A9" s="30" t="s">
+    <row r="9" s="34" customFormat="1" ht="29.15" spans="1:12">
+      <c r="A9" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="45">
         <v>0.160416666666667</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="44">
         <v>2013</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="19" t="str">
+      <c r="L9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="43">
         <v>0.1875</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="35">
         <v>1995</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="19" t="str">
+      <c r="L10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
     </row>
-    <row r="11" s="19" customFormat="1" ht="43.7" spans="1:12">
-      <c r="A11" s="24" t="s">
+    <row r="11" s="3" customFormat="1" ht="43.7" spans="1:12">
+      <c r="A11" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="39">
         <v>0.188194444444444</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="85">
         <v>2004</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="19" t="str">
+      <c r="L11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
     </row>
-    <row r="12" s="19" customFormat="1" spans="1:10">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="G12" s="19" t="s">
+    <row r="12" s="3" customFormat="1" spans="1:10">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="G12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24" t="s">
+      <c r="H12" s="38"/>
+      <c r="I12" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" s="19" customFormat="1" spans="1:10">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="G13" s="19" t="s">
+      <c r="J12" s="38"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:10">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="G13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="43">
         <v>0.228472222222222</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22" t="s">
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="35">
         <v>2011</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="L14" s="19" t="str">
+      <c r="L14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
-    <row r="15" s="20" customFormat="1" spans="1:12">
-      <c r="A15" s="30" t="s">
+    <row r="15" s="34" customFormat="1" spans="1:12">
+      <c r="A15" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="45">
         <v>0.175</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="44">
         <v>2003</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="19" t="str">
+      <c r="L15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="16" ht="29.15" spans="1:12">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="43">
         <v>0.224305555555556</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="35">
         <v>2012</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="19" t="str">
+      <c r="L16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
-    <row r="17" s="20" customFormat="1" spans="1:12">
-      <c r="A17" s="30" t="s">
+    <row r="17" s="34" customFormat="1" spans="1:12">
+      <c r="A17" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="45">
         <v>0.16875</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="44">
         <v>1996</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="19" t="str">
+      <c r="L17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
     </row>
     <row r="18" ht="58.3" spans="1:12">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="47">
         <v>0.215277777777778</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="35">
         <v>1995</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="L18" s="19" t="str">
+      <c r="L18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
     </row>
-    <row r="19" s="20" customFormat="1" spans="1:12">
-      <c r="A19" s="34" t="s">
+    <row r="19" s="34" customFormat="1" spans="1:12">
+      <c r="A19" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="45">
         <v>0.101388888888889</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34" t="s">
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="44">
         <v>2016</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="19" t="str">
+      <c r="L19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation Z</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="47">
         <v>0.127777777777778</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35" t="s">
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="35">
         <v>1978</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L20" s="19" t="str">
+      <c r="L20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Boomers / Generation X</v>
       </c>
     </row>
-    <row r="21" s="20" customFormat="1" spans="1:12">
-      <c r="A21" s="34" t="s">
+    <row r="21" s="34" customFormat="1" spans="1:12">
+      <c r="A21" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="45">
         <v>0.163888888888889</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34" t="s">
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="44">
         <v>2010</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L21" s="19" t="str">
+      <c r="L21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="22" ht="43.7" spans="1:12">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="47">
         <v>0.174305555555556</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32" t="s">
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="35">
         <v>1992</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="L22" s="19" t="str">
+      <c r="L22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
     </row>
-    <row r="23" s="20" customFormat="1" ht="29.15" spans="1:12">
-      <c r="A23" s="34" t="s">
+    <row r="23" s="34" customFormat="1" ht="29.15" spans="1:12">
+      <c r="A23" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="45">
         <v>0.245833333333333</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="44">
         <v>2006</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="L23" s="19" t="str">
+      <c r="L23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="51">
         <v>0.18125</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39" t="s">
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="35">
         <v>1994</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="L24" s="19" t="str">
+      <c r="L24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="36"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39" t="s">
+      <c r="A25" s="50"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="35">
         <v>2010</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="19" t="str">
+      <c r="L25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="36"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39" t="s">
+      <c r="A26" s="50"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="35">
         <v>1999</v>
       </c>
-      <c r="L26" s="19"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" ht="29.15" spans="1:12">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="43">
         <v>0.199305555555556</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42" t="s">
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="35">
         <v>2014</v>
       </c>
-      <c r="L27" s="19"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" ht="29.15" spans="1:12">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="47">
         <v>0.192361111111111</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32" t="s">
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="35">
         <v>2010</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="L28" s="19" t="str">
+      <c r="L28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="42"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42" t="s">
+      <c r="A29" s="56"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="35">
         <v>1985</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="L29" s="19" t="str">
+      <c r="L29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
     </row>
     <row r="30" ht="29.15" spans="1:12">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="43">
         <v>0.170833333333333</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42" t="s">
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="35">
         <v>2002</v>
       </c>
-      <c r="K30" s="22" t="s">
+      <c r="K30" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="L30" s="19" t="str">
+      <c r="L30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="31" ht="29.15" spans="1:12">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="47">
         <v>0.167361111111111</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32" t="s">
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="35">
         <v>1996</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="K31" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="L31" s="19" t="str">
+      <c r="L31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
     </row>
     <row r="32" ht="29.15" spans="1:12">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="43">
         <v>0.231944444444444</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42" t="s">
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="35">
         <v>2014</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="L32" s="19" t="str">
+      <c r="L32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="47">
         <v>0.110416666666667</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32" t="s">
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="35">
         <v>2004</v>
       </c>
-      <c r="K33" s="22" t="s">
+      <c r="K33" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="L33" s="19" t="str">
+      <c r="L33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="34" ht="29.15" spans="1:12">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="45">
+      <c r="B34" s="59">
         <v>0.129861111111111</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="47" t="s">
+      <c r="F34" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="G34" s="42" t="s">
+      <c r="G34" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="35">
         <v>2003</v>
       </c>
-      <c r="L34" s="19"/>
+      <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="32" t="s">
+      <c r="A35" s="62"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="35">
         <v>2019</v>
       </c>
-      <c r="L35" s="19"/>
+      <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="47">
         <v>0.164583333333333</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32" t="s">
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I36" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="35">
         <v>1992</v>
       </c>
-      <c r="K36" s="22" t="s">
+      <c r="K36" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="L36" s="19" t="str">
+      <c r="L36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B37" s="43">
         <v>0.28125</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42" t="s">
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="35">
         <v>2012</v>
       </c>
-      <c r="K37" s="22" t="s">
+      <c r="K37" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="L37" s="19" t="str">
+      <c r="L37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="38" ht="29.15" spans="1:12">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="47">
         <v>0.245833333333333</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32" t="s">
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="H38" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38" s="35">
         <v>2005</v>
       </c>
-      <c r="K38" s="22" t="s">
+      <c r="K38" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="L38" s="19" t="str">
+      <c r="L38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="39" ht="43.7" spans="1:12">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="45">
+      <c r="B39" s="59">
         <v>0.176388888888889</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="42" t="s">
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="35">
         <v>2004</v>
       </c>
-      <c r="K39" s="22" t="s">
+      <c r="K39" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="L39" s="19" t="str">
+      <c r="L39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="54"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="32" t="s">
+      <c r="A40" s="68"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="35">
         <v>2005</v>
       </c>
-      <c r="L40" s="19"/>
+      <c r="L40" s="3"/>
     </row>
     <row r="41" ht="29.15" spans="1:12">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B41" s="47">
         <v>0.152083333333333</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32" t="s">
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="H41" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="I41" s="21" t="s">
+      <c r="I41" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J41" s="35">
         <v>2001</v>
       </c>
-      <c r="K41" s="22" t="s">
+      <c r="K41" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="L41" s="19" t="str">
+      <c r="L41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B42" s="43">
         <v>0.171527777777778</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42" t="s">
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="H42" s="21" t="s">
+      <c r="H42" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="I42" s="21" t="s">
+      <c r="I42" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J42" s="21">
+      <c r="J42" s="35">
         <v>2016</v>
       </c>
-      <c r="L42" s="19"/>
+      <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="33">
+      <c r="B43" s="47">
         <v>0.129166666666667</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32" t="s">
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="H43" s="21" t="s">
+      <c r="H43" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="I43" s="21" t="s">
+      <c r="I43" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J43" s="35">
         <v>2017</v>
       </c>
-      <c r="L43" s="19"/>
+      <c r="L43" s="3"/>
     </row>
     <row r="44" ht="29.15" spans="1:12">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="B44" s="29">
+      <c r="B44" s="43">
         <v>0.190972222222222</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42" t="s">
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="H44" s="21" t="s">
+      <c r="H44" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="21">
+      <c r="J44" s="35">
         <v>2007</v>
       </c>
-      <c r="K44" s="22" t="s">
+      <c r="K44" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="L44" s="19" t="str">
+      <c r="L44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="B45" s="56">
+      <c r="B45" s="70">
         <v>0.275694444444444</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="32" t="s">
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="H45" s="21" t="s">
+      <c r="H45" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="I45" s="21" t="s">
+      <c r="I45" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J45" s="35">
         <v>2001</v>
       </c>
-      <c r="K45" s="22" t="s">
+      <c r="K45" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="L45" s="19" t="str">
+      <c r="L45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="58"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="42" t="s">
+      <c r="A46" s="72"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="H46" s="21" t="s">
+      <c r="H46" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="I46" s="21" t="s">
+      <c r="I46" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J46" s="35">
         <v>2007</v>
       </c>
-      <c r="K46" s="22" t="s">
+      <c r="K46" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="L46" s="19" t="str">
+      <c r="L46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="47" ht="29.15" spans="1:12">
-      <c r="A47" s="58"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="42" t="s">
+      <c r="A47" s="72"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="H47" s="21" t="s">
+      <c r="H47" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I47" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J47" s="21">
+      <c r="J47" s="35">
         <v>1962</v>
       </c>
-      <c r="K47" s="22" t="s">
+      <c r="K47" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="L47" s="19" t="str">
+      <c r="L47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Boomer</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="58"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="42" t="s">
+      <c r="A48" s="72"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="H48" s="21" t="s">
+      <c r="H48" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="21" t="s">
+      <c r="I48" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J48" s="21">
+      <c r="J48" s="35">
         <v>1961</v>
       </c>
-      <c r="K48" s="22" t="s">
+      <c r="K48" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="L48" s="19" t="str">
+      <c r="L48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Boomer</v>
       </c>
     </row>
     <row r="49" ht="29.15" spans="1:12">
-      <c r="A49" s="58"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="42" t="s">
+      <c r="A49" s="72"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="H49" s="21" t="s">
+      <c r="H49" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="I49" s="21" t="s">
+      <c r="I49" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J49" s="21">
+      <c r="J49" s="35">
         <v>1978</v>
       </c>
-      <c r="K49" s="22" t="s">
+      <c r="K49" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="L49" s="19" t="str">
+      <c r="L49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Boomer</v>
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="54"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="42" t="s">
+      <c r="A50" s="68"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="H50" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="I50" s="21" t="s">
+      <c r="I50" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J50" s="21">
+      <c r="J50" s="35">
         <v>1977</v>
       </c>
-      <c r="K50" s="22" t="s">
+      <c r="K50" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="L50" s="19" t="str">
+      <c r="L50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Boomer</v>
       </c>
     </row>
     <row r="51" ht="29.15" spans="1:12">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="B51" s="29">
+      <c r="B51" s="43">
         <v>0.214583333333333</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="42" t="s">
+      <c r="E51" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="F51" s="42" t="s">
+      <c r="F51" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="G51" s="42" t="s">
+      <c r="G51" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="H51" s="21" t="s">
+      <c r="H51" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="I51" s="21" t="s">
+      <c r="I51" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J51" s="21">
+      <c r="J51" s="35">
         <v>1980</v>
       </c>
-      <c r="K51" s="22" t="s">
+      <c r="K51" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="L51" s="19" t="str">
+      <c r="L51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Boomer</v>
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="B52" s="33">
+      <c r="B52" s="47">
         <v>0.188194444444444</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F52" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="G52" s="32" t="s">
+      <c r="G52" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="H52" s="21" t="s">
+      <c r="H52" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="I52" s="21" t="s">
+      <c r="I52" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J52" s="21">
+      <c r="J52" s="35">
         <v>2011</v>
       </c>
-      <c r="K52" s="22" t="s">
+      <c r="K52" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="L52" s="19" t="str">
+      <c r="L52" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="29">
+      <c r="B53" s="43">
         <v>0.125694444444444</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="42" t="s">
+      <c r="E53" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="F53" s="42" t="s">
+      <c r="F53" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="H53" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="I53" s="21" t="s">
+      <c r="I53" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J53" s="35">
         <v>2009</v>
       </c>
-      <c r="K53" s="22" t="s">
+      <c r="K53" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="L53" s="19" t="str">
+      <c r="L53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="54" ht="43.7" spans="1:12">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="33">
+      <c r="B54" s="47">
         <v>0.247222222222222</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="64" t="s">
+      <c r="E54" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="F54" s="64" t="s">
+      <c r="F54" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="G54" s="35" t="s">
+      <c r="G54" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="H54" s="21" t="s">
+      <c r="H54" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="I54" s="21" t="s">
+      <c r="I54" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J54" s="35">
         <v>2003</v>
       </c>
-      <c r="K54" s="22" t="s">
+      <c r="K54" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="L54" s="19" t="str">
+      <c r="L54" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="55" ht="39.85" spans="1:12">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="33">
+      <c r="B55" s="47">
         <v>0.216666666666667</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E55" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="F55" s="32" t="s">
+      <c r="F55" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G55" s="32" t="s">
+      <c r="G55" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="H55" s="21" t="s">
+      <c r="H55" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="I55" s="21" t="s">
+      <c r="I55" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="35">
         <v>2007</v>
       </c>
-      <c r="K55" s="22" t="s">
+      <c r="K55" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="L55" s="19" t="str">
+      <c r="L55" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="56" ht="43.7" spans="1:12">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="B56" s="29">
+      <c r="B56" s="43">
         <v>0.143055555555556</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="F56" s="42" t="s">
+      <c r="F56" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="G56" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="H56" s="21" t="s">
+      <c r="H56" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="I56" s="21" t="s">
+      <c r="I56" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J56" s="35">
         <v>1998</v>
       </c>
-      <c r="K56" s="22" t="s">
+      <c r="K56" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="L56" s="19" t="str">
+      <c r="L56" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B57" s="47">
         <v>0.159027777777778</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E57" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F57" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="G57" s="32" t="s">
+      <c r="G57" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="H57" s="21" t="s">
+      <c r="H57" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="I57" s="21" t="s">
+      <c r="I57" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J57" s="21">
+      <c r="J57" s="35">
         <v>1976</v>
       </c>
-      <c r="K57" s="22" t="s">
+      <c r="K57" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="L57" s="19" t="str">
+      <c r="L57" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Boomers / Generation X</v>
       </c>
     </row>
     <row r="58" ht="29.15" spans="1:12">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="B58" s="66">
+      <c r="B58" s="80">
         <v>0.286805555555556</v>
       </c>
-      <c r="C58" s="67" t="s">
+      <c r="C58" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="67" t="s">
+      <c r="D58" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="65" t="s">
+      <c r="E58" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="F58" s="65" t="s">
+      <c r="F58" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G58" s="42" t="s">
+      <c r="G58" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="H58" s="21" t="s">
+      <c r="H58" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="I58" s="21" t="s">
+      <c r="I58" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J58" s="21">
+      <c r="J58" s="35">
         <v>1986</v>
       </c>
-      <c r="K58" s="22" t="s">
+      <c r="K58" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="L58" s="19" t="str">
+      <c r="L58" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="68"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="32" t="s">
+      <c r="A59" s="82"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H59" s="21" t="s">
+      <c r="H59" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="I59" s="21" t="s">
+      <c r="I59" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J59" s="21">
+      <c r="J59" s="35">
         <v>2014</v>
       </c>
-      <c r="L59" s="19"/>
+      <c r="L59" s="3"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="33">
+      <c r="B60" s="47">
         <v>0.34375</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="32" t="s">
+      <c r="E60" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="F60" s="32" t="s">
+      <c r="F60" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="G60" s="32" t="s">
+      <c r="G60" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="H60" s="21" t="s">
+      <c r="H60" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="I60" s="21" t="s">
+      <c r="I60" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J60" s="21">
+      <c r="J60" s="35">
         <v>2001</v>
       </c>
-      <c r="K60" s="22" t="s">
+      <c r="K60" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="L60" s="19" t="str">
+      <c r="L60" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
     </row>
     <row r="61" ht="29.15" spans="1:12">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="29">
+      <c r="B61" s="43">
         <v>0.266666666666667</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="42" t="s">
+      <c r="E61" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="F61" s="42" t="s">
+      <c r="F61" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="G61" s="42" t="s">
+      <c r="G61" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="H61" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="I61" s="21" t="s">
+      <c r="I61" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="J61" s="21">
+      <c r="J61" s="35">
         <v>2008</v>
       </c>
-      <c r="K61" s="22" t="s">
+      <c r="K61" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="L61" s="19" t="str">
+      <c r="L61" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="62" ht="26.55" spans="1:12">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="B62" s="33">
+      <c r="B62" s="47">
         <v>0.141666666666667</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="32" t="s">
+      <c r="E62" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="F62" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="G62" s="32" t="s">
+      <c r="G62" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="H62" s="21" t="s">
+      <c r="H62" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="I62" s="21" t="s">
+      <c r="I62" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J62" s="21">
+      <c r="J62" s="35">
         <v>2010</v>
       </c>
-      <c r="L62" s="19"/>
+      <c r="L62" s="3"/>
     </row>
     <row r="63" ht="29.15" spans="1:12">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="B63" s="29">
+      <c r="B63" s="43">
         <v>0.163888888888889</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="42" t="s">
+      <c r="E63" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="F63" s="42" t="s">
+      <c r="F63" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="G63" s="42" t="s">
+      <c r="G63" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="H63" s="21" t="s">
+      <c r="H63" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="I63" s="21" t="s">
+      <c r="I63" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J63" s="21">
+      <c r="J63" s="35">
         <v>2009</v>
       </c>
-      <c r="L63" s="19"/>
+      <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="B64" s="33">
+      <c r="B64" s="47">
         <v>0.169444444444444</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="32" t="s">
+      <c r="E64" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="F64" s="32" t="s">
+      <c r="F64" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="G64" s="32" t="s">
+      <c r="G64" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="H64" s="21" t="s">
+      <c r="H64" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="I64" s="21" t="s">
+      <c r="I64" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="J64" s="21">
+      <c r="J64" s="35">
         <v>2002</v>
       </c>
-      <c r="K64" s="22" t="s">
+      <c r="K64" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="L64" s="19" t="str">
+      <c r="L64" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
     </row>
     <row r="65" ht="29.15" spans="1:12">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="B65" s="29">
+      <c r="B65" s="43">
         <v>0.146527777777778</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="42" t="s">
+      <c r="E65" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="F65" s="42" t="s">
+      <c r="F65" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G65" s="42" t="s">
+      <c r="G65" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="H65" s="21" t="s">
+      <c r="H65" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I65" s="21" t="s">
+      <c r="I65" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J65" s="21">
+      <c r="J65" s="35">
         <v>2013</v>
       </c>
-      <c r="K65" s="22" t="s">
+      <c r="K65" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="L65" s="19" t="str">
+      <c r="L65" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="B66" s="33">
+      <c r="B66" s="47">
         <v>0.184027777777778</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="32" t="s">
+      <c r="E66" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="F66" s="32" t="s">
+      <c r="F66" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="G66" s="32" t="s">
+      <c r="G66" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="H66" s="21" t="s">
+      <c r="H66" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="I66" s="21" t="s">
+      <c r="I66" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="J66" s="21">
+      <c r="J66" s="35">
         <v>2006</v>
       </c>
-      <c r="K66" s="22" t="s">
+      <c r="K66" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="L66" s="19" t="str">
+      <c r="L66" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="67" ht="26.55" spans="1:12">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="B67" s="29">
+      <c r="B67" s="43">
         <v>0.282638888888889</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="42" t="s">
+      <c r="E67" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="F67" s="42" t="s">
+      <c r="F67" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G67" s="42" t="s">
+      <c r="G67" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="H67" s="21" t="s">
+      <c r="H67" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="I67" s="21" t="s">
+      <c r="I67" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J67" s="21">
+      <c r="J67" s="35">
         <v>2000</v>
       </c>
-      <c r="K67" s="22" t="s">
+      <c r="K67" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="L67" s="19" t="str">
+      <c r="L67" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Millennial</v>
       </c>
     </row>
     <row r="68" ht="29.15" spans="1:12">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="B68" s="33">
+      <c r="B68" s="47">
         <v>0.166666666666667</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E68" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="F68" s="32" t="s">
+      <c r="F68" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="G68" s="32" t="s">
+      <c r="G68" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="H68" s="21" t="s">
+      <c r="H68" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="I68" s="21" t="s">
+      <c r="I68" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J68" s="21">
+      <c r="J68" s="35">
         <v>2000</v>
       </c>
-      <c r="K68" s="22" t="s">
+      <c r="K68" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="L68" s="19" t="str">
+      <c r="L68" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Generation X</v>
       </c>
@@ -14538,7 +14656,7 @@
       <c r="A4" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <v>4</v>
       </c>
     </row>
@@ -14546,7 +14664,7 @@
       <c r="A5" t="s">
         <v>262</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
     </row>
@@ -14554,7 +14672,7 @@
       <c r="A6" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <v>12</v>
       </c>
     </row>
@@ -14562,7 +14680,7 @@
       <c r="A7" t="s">
         <v>264</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
     </row>
@@ -14570,7 +14688,7 @@
       <c r="A8" t="s">
         <v>265</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="9">
         <v>21</v>
       </c>
     </row>
@@ -14578,7 +14696,7 @@
       <c r="A9" t="s">
         <v>266</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14797,96 +14915,96 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="29"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="29"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="30"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="29"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="30"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="30"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="30"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="30"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="29"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="29"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="29"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="30"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="29"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="29"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="29"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="30"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="29"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="29"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="15"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="30"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -14923,186 +15041,186 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.55" customHeight="1" spans="1:2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="23"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" ht="26.55" customHeight="1" spans="1:2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" ht="26.55" customHeight="1" spans="1:2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="25"/>
     </row>
     <row r="15" ht="26.55" customHeight="1" spans="1:2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="26"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="26"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="26"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="25"/>
     </row>
     <row r="19" ht="26.55" customHeight="1" spans="1:2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="26"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="26"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="26"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="25"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="20">
         <v>0.229861111111111</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="20">
         <v>0.225</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="20">
         <v>0.157638888888889</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="20">
         <v>0.26875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="20">
         <v>0.280555555555556</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="20">
         <v>0.166666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="20">
         <v>0.169444444444444</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="20">
         <v>0.269444444444444</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="20">
         <v>0.177777777777778</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="20">
         <v>0.213888888888889</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="20">
         <v>0.284027777777778</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="20">
         <v>0.161805555555556</v>
       </c>
     </row>
@@ -15137,46 +15255,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="19" t="s">
         <v>274</v>
       </c>
       <c r="G1" t="str" cm="1">
         <f t="array" ref="G1:G15">_xlfn.UNIQUE(A:A)</f>
         <v>Song</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="20">
         <v>0.183333333333333</v>
       </c>
       <c r="C2">
@@ -15216,10 +15334,10 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="20">
         <v>0.240277777777778</v>
       </c>
       <c r="C3">
@@ -15259,10 +15377,10 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="20">
         <v>0.160416666666667</v>
       </c>
       <c r="C4">
@@ -15302,10 +15420,10 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="20">
         <v>0.203472222222222</v>
       </c>
       <c r="C5">
@@ -15345,10 +15463,10 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="20">
         <v>0.231944444444444</v>
       </c>
       <c r="C6">
@@ -15388,10 +15506,10 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="20">
         <v>0.231944444444444</v>
       </c>
       <c r="C7">
@@ -15406,18 +15524,18 @@
         <f t="shared" si="2"/>
         <v>334</v>
       </c>
-      <c r="G7" s="6" t="str">
+      <c r="G7" s="21" t="str">
         <v>Don't Tread on Else Matters</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="20">
         <v>0.160416666666667</v>
       </c>
       <c r="C8">
@@ -15457,10 +15575,10 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="20">
         <v>0.1875</v>
       </c>
       <c r="C9">
@@ -15500,10 +15618,10 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="20">
         <v>0.188194444444444</v>
       </c>
       <c r="C10">
@@ -15543,10 +15661,10 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="20">
         <v>0.228472222222222</v>
       </c>
       <c r="C11">
@@ -15586,10 +15704,10 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="20">
         <v>0.175</v>
       </c>
       <c r="C12">
@@ -15629,10 +15747,10 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="20">
         <v>0.224305555555556</v>
       </c>
       <c r="C13">
@@ -15672,10 +15790,10 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="20">
         <v>0.16875</v>
       </c>
       <c r="C14">
@@ -15715,10 +15833,10 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="20">
         <v>0.215277777777778</v>
       </c>
       <c r="C15">
@@ -15738,10 +15856,10 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="20">
         <v>0.101388888888889</v>
       </c>
       <c r="C16">
@@ -15758,10 +15876,10 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="20">
         <v>0.127777777777778</v>
       </c>
       <c r="C17">
@@ -15778,10 +15896,10 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="20">
         <v>0.163888888888889</v>
       </c>
       <c r="C18">
@@ -15798,10 +15916,10 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="20">
         <v>0.174305555555556</v>
       </c>
       <c r="C19">
@@ -15818,10 +15936,10 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="20">
         <v>0.245833333333333</v>
       </c>
       <c r="C20">
@@ -15836,30 +15954,30 @@
         <f t="shared" si="2"/>
         <v>354</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="20">
         <v>0.18125</v>
       </c>
       <c r="C21">
@@ -15874,10 +15992,10 @@
         <f t="shared" si="2"/>
         <v>261</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="20">
         <v>0.229861111111111</v>
       </c>
       <c r="I21">
@@ -15898,10 +16016,10 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="20">
         <v>0.199305555555556</v>
       </c>
       <c r="C22">
@@ -15916,10 +16034,10 @@
         <f t="shared" si="2"/>
         <v>287</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="20">
         <v>0.225</v>
       </c>
       <c r="I22">
@@ -15940,10 +16058,10 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="20">
         <v>0.192361111111111</v>
       </c>
       <c r="C23">
@@ -15958,10 +16076,10 @@
         <f t="shared" si="2"/>
         <v>277</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="20">
         <v>0.157638888888889</v>
       </c>
       <c r="I23">
@@ -15982,10 +16100,10 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="20">
         <v>0.170833333333333</v>
       </c>
       <c r="C24">
@@ -16000,10 +16118,10 @@
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="20">
         <v>0.26875</v>
       </c>
       <c r="I24">
@@ -16024,10 +16142,10 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="20">
         <v>0.167361111111111</v>
       </c>
       <c r="C25">
@@ -16042,10 +16160,10 @@
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="20">
         <v>0.280555555555556</v>
       </c>
       <c r="I25">
@@ -16066,10 +16184,10 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="20">
         <v>0.231944444444444</v>
       </c>
       <c r="C26">
@@ -16084,10 +16202,10 @@
         <f t="shared" si="2"/>
         <v>334</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="20">
         <v>0.166666666666667</v>
       </c>
       <c r="I26">
@@ -16108,10 +16226,10 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="20">
         <v>0.110416666666667</v>
       </c>
       <c r="C27">
@@ -16126,10 +16244,10 @@
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="20">
         <v>0.169444444444444</v>
       </c>
       <c r="I27">
@@ -16150,10 +16268,10 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="20">
         <v>0.129861111111111</v>
       </c>
       <c r="C28">
@@ -16168,10 +16286,10 @@
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="20">
         <v>0.269444444444444</v>
       </c>
       <c r="I28">
@@ -16192,10 +16310,10 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="20">
         <v>0.164583333333333</v>
       </c>
       <c r="C29">
@@ -16210,10 +16328,10 @@
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="20">
         <v>0.177777777777778</v>
       </c>
       <c r="I29">
@@ -16234,10 +16352,10 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="20">
         <v>0.28125</v>
       </c>
       <c r="C30">
@@ -16252,10 +16370,10 @@
         <f t="shared" si="2"/>
         <v>405</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="20">
         <v>0.213888888888889</v>
       </c>
       <c r="I30">
@@ -16276,10 +16394,10 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="20">
         <v>0.245833333333333</v>
       </c>
       <c r="C31">
@@ -16294,10 +16412,10 @@
         <f t="shared" si="2"/>
         <v>354</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="20">
         <v>0.284027777777778</v>
       </c>
       <c r="I31">
@@ -16318,10 +16436,10 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="20">
         <v>0.176388888888889</v>
       </c>
       <c r="C32">
@@ -16336,10 +16454,10 @@
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="20">
         <v>0.161805555555556</v>
       </c>
       <c r="I32">
@@ -16360,10 +16478,10 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="20">
         <v>0.152083333333333</v>
       </c>
       <c r="C33">
@@ -16380,10 +16498,10 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="20">
         <v>0.171527777777778</v>
       </c>
       <c r="C34">
@@ -16400,10 +16518,10 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="20">
         <v>0.129166666666667</v>
       </c>
       <c r="C35">
@@ -16420,10 +16538,10 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="20">
         <v>0.190972222222222</v>
       </c>
       <c r="C36">
@@ -16440,10 +16558,10 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="20">
         <v>0.275694444444444</v>
       </c>
       <c r="C37">
@@ -16460,10 +16578,10 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="20">
         <v>0.214583333333333</v>
       </c>
       <c r="C38">
@@ -16480,10 +16598,10 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="20">
         <v>0.188194444444444</v>
       </c>
       <c r="C39">
@@ -16500,10 +16618,10 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="20">
         <v>0.125694444444444</v>
       </c>
       <c r="C40">
@@ -16520,10 +16638,10 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="20">
         <v>0.247222222222222</v>
       </c>
       <c r="C41">
@@ -16540,10 +16658,10 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="20">
         <v>0.216666666666667</v>
       </c>
       <c r="C42">
@@ -16560,10 +16678,10 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="20">
         <v>0.143055555555556</v>
       </c>
       <c r="C43">
@@ -16580,10 +16698,10 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="20">
         <v>0.159027777777778</v>
       </c>
       <c r="C44">
@@ -16600,10 +16718,10 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="20">
         <v>0.286805555555556</v>
       </c>
       <c r="C45">
@@ -16620,10 +16738,10 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="20">
         <v>0.34375</v>
       </c>
       <c r="C46">
@@ -16640,10 +16758,10 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="20">
         <v>0.266666666666667</v>
       </c>
       <c r="C47">
@@ -16660,10 +16778,10 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="20">
         <v>0.141666666666667</v>
       </c>
       <c r="C48">
@@ -16680,10 +16798,10 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="20">
         <v>0.163888888888889</v>
       </c>
       <c r="C49">
@@ -16700,10 +16818,10 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="20">
         <v>0.169444444444444</v>
       </c>
       <c r="C50">
@@ -16720,10 +16838,10 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="20">
         <v>0.146527777777778</v>
       </c>
       <c r="C51">
@@ -16740,10 +16858,10 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="20">
         <v>0.184027777777778</v>
       </c>
       <c r="C52">
@@ -16760,10 +16878,10 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="20">
         <v>0.282638888888889</v>
       </c>
       <c r="C53">
@@ -16778,21 +16896,21 @@
         <f t="shared" si="2"/>
         <v>407</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="20">
         <v>0.166666666666667</v>
       </c>
       <c r="C54">
@@ -16807,7 +16925,7 @@
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H54">
@@ -16818,8 +16936,8 @@
       </c>
     </row>
     <row r="55" spans="5:9">
-      <c r="E55" s="4"/>
-      <c r="G55" s="4" t="s">
+      <c r="E55" s="9"/>
+      <c r="G55" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H55">
@@ -16830,7 +16948,7 @@
       </c>
     </row>
     <row r="56" spans="7:9">
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="9" t="s">
         <v>76</v>
       </c>
       <c r="H56">
@@ -16841,7 +16959,7 @@
       </c>
     </row>
     <row r="57" spans="7:9">
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="9" t="s">
         <v>94</v>
       </c>
       <c r="H57">
@@ -16852,7 +16970,7 @@
       </c>
     </row>
     <row r="58" spans="7:9">
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="9" t="s">
         <v>124</v>
       </c>
       <c r="H58">
@@ -16863,7 +16981,7 @@
       </c>
     </row>
     <row r="59" spans="7:9">
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="9" t="s">
         <v>268</v>
       </c>
       <c r="H59">
@@ -16874,7 +16992,7 @@
       </c>
     </row>
     <row r="60" spans="7:9">
-      <c r="G60" s="4" t="s">
+      <c r="G60" s="9" t="s">
         <v>154</v>
       </c>
       <c r="H60">
@@ -16885,7 +17003,7 @@
       </c>
     </row>
     <row r="61" spans="7:9">
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="9" t="s">
         <v>162</v>
       </c>
       <c r="H61">
@@ -16896,7 +17014,7 @@
       </c>
     </row>
     <row r="62" spans="7:9">
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="9" t="s">
         <v>231</v>
       </c>
       <c r="H62">
@@ -16907,7 +17025,7 @@
       </c>
     </row>
     <row r="63" spans="7:9">
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="9" t="s">
         <v>269</v>
       </c>
       <c r="H63">
@@ -16918,7 +17036,7 @@
       </c>
     </row>
     <row r="64" spans="7:9">
-      <c r="G64" s="4" t="s">
+      <c r="G64" s="9" t="s">
         <v>244</v>
       </c>
       <c r="H64">
@@ -16929,7 +17047,7 @@
       </c>
     </row>
     <row r="65" spans="7:9">
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H65">
@@ -17109,7 +17227,7 @@
         <f>COUNTIF(Sheet1!D8:D74,A8)</f>
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="18" t="s">
         <v>281</v>
       </c>
       <c r="G8" t="str">
@@ -17137,7 +17255,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="18" t="s">
         <v>283</v>
       </c>
       <c r="D10" t="s">
@@ -17287,7 +17405,7 @@
       </c>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="18" t="s">
         <v>286</v>
       </c>
     </row>
@@ -17474,18 +17592,19 @@
   <sheetPr/>
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55"/>
   <cols>
     <col min="1" max="1" width="13.3603603603604" customWidth="1"/>
     <col min="2" max="2" width="18.2162162162162" customWidth="1"/>
+    <col min="4" max="4" width="12.5765765765766" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
-      <c r="A1" s="1" cm="1">
+      <c r="A1" s="7" cm="1">
         <f t="array" ref="A1:A35">_xlfn._xlws.SORT(_xlfn.UNIQUE(Sheet1!J:J))</f>
         <v>0</v>
       </c>
@@ -17591,10 +17710,10 @@
       </c>
     </row>
     <row r="2" spans="1:36">
-      <c r="A2">
+      <c r="A2" s="8">
         <v>1961</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <f>COUNTIF(Sheet1!J:J,A2)</f>
         <v>1</v>
       </c>
@@ -17699,289 +17818,352 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="A3" s="8">
         <v>1962</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <f>COUNTIF(Sheet1!J:J,A3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="A4" s="8">
         <v>1976</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <f>COUNTIF(Sheet1!J:J,A4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>1977</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <f>COUNTIF(Sheet1!J:J,A5)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+    <row r="6" spans="1:5">
+      <c r="A6" s="8">
         <v>1978</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <f>COUNTIF(Sheet1!J:J,A6)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="D6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="9">
+        <f>SUM(B2:B7)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8">
         <v>1980</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <f>COUNTIF(Sheet1!J:J,A7)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="D7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="9">
+        <f>SUM(B8:B9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10">
         <v>1985</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="10">
         <f>COUNTIF(Sheet1!J:J,A8)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="D8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="9">
+        <f>SUM(B10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10">
         <v>1986</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="10">
         <f>COUNTIF(Sheet1!J:J,A9)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="D9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="9">
+        <f>SUM(B11:B13)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11">
         <v>1988</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="11">
         <f>COUNTIF(Sheet1!J:J,A10)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+      <c r="D10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="9">
+        <f>SUM(B14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="12">
         <v>1992</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="12">
         <f>COUNTIF(Sheet1!J:J,A11)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+      <c r="D11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" s="9">
+        <f>SUM(B15:B19)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="12">
         <v>1994</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="12">
         <f>COUNTIF(Sheet1!J:J,A12)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+      <c r="D12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="9">
+        <f>SUM(B20:B24)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="12">
         <v>1995</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="12">
         <f>COUNTIF(Sheet1!J:J,A13)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+      <c r="D13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="9">
+        <f>SUM(B25:B31)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13">
         <v>1996</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="13">
         <f>COUNTIF(Sheet1!J:J,A14)</f>
         <v>2</v>
       </c>
+      <c r="D14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E14" s="9">
+        <f>SUM(B32:B34)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15">
+      <c r="A15" s="14">
         <v>1998</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="14">
         <f>COUNTIF(Sheet1!J:J,A15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16">
+      <c r="A16" s="14">
         <v>1999</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="14">
         <f>COUNTIF(Sheet1!J:J,A16)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17">
+      <c r="A17" s="14">
         <v>2000</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="14">
         <f>COUNTIF(Sheet1!J:J,A17)</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18">
+      <c r="A18" s="14">
         <v>2001</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="14">
         <f>COUNTIF(Sheet1!J:J,A18)</f>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19">
+      <c r="A19" s="14">
         <v>2002</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="14">
         <f>COUNTIF(Sheet1!J:J,A19)</f>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20">
+      <c r="A20" s="15">
         <v>2003</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="15">
         <f>COUNTIF(Sheet1!J:J,A20)</f>
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21">
+      <c r="A21" s="15">
         <v>2004</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="15">
         <f>COUNTIF(Sheet1!J:J,A21)</f>
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22">
+      <c r="A22" s="15">
         <v>2005</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="15">
         <f>COUNTIF(Sheet1!J:J,A22)</f>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23">
+      <c r="A23" s="15">
         <v>2006</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="15">
         <f>COUNTIF(Sheet1!J:J,A23)</f>
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24">
+      <c r="A24" s="15">
         <v>2007</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="15">
         <f>COUNTIF(Sheet1!J:J,A24)</f>
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25">
+      <c r="A25" s="16">
         <v>2008</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="16">
         <f>COUNTIF(Sheet1!J:J,A25)</f>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26">
+      <c r="A26" s="16">
         <v>2009</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="16">
         <f>COUNTIF(Sheet1!J:J,A26)</f>
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27">
+      <c r="A27" s="16">
         <v>2010</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="16">
         <f>COUNTIF(Sheet1!J:J,A27)</f>
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28">
+      <c r="A28" s="16">
         <v>2011</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="16">
         <f>COUNTIF(Sheet1!J:J,A28)</f>
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29">
+      <c r="A29" s="16">
         <v>2012</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="16">
         <f>COUNTIF(Sheet1!J:J,A29)</f>
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30">
+      <c r="A30" s="16">
         <v>2013</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="16">
         <f>COUNTIF(Sheet1!J:J,A30)</f>
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31">
+      <c r="A31" s="16">
         <v>2014</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="16">
         <f>COUNTIF(Sheet1!J:J,A31)</f>
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32">
+      <c r="A32" s="17">
         <v>2016</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="17">
         <f>COUNTIF(Sheet1!J:J,A32)</f>
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33">
+      <c r="A33" s="17">
         <v>2017</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="17">
         <f>COUNTIF(Sheet1!J:J,A33)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34">
+      <c r="A34" s="17">
         <v>2019</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="17">
         <f>COUNTIF(Sheet1!J:J,A34)</f>
         <v>1</v>
       </c>
@@ -17996,4 +18178,2762 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55"/>
+  <cols>
+    <col min="1" max="1" width="77.5225225225225" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:C1">_xlfn.TEXTSPLIT(A1,",")</f>
+        <v>pop</v>
+      </c>
+      <c r="C1" t="str">
+        <v> r&amp;b</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:C2">_xlfn.TEXTSPLIT(A2,",")</f>
+        <v>rock</v>
+      </c>
+      <c r="C2" t="str">
+        <v> hard rock</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3:F3">_xlfn.TEXTSPLIT(A3,",")</f>
+        <v>indie rock</v>
+      </c>
+      <c r="C3" t="str">
+        <v> indie pop</v>
+      </c>
+      <c r="D3" t="str">
+        <v> psychedelic pop</v>
+      </c>
+      <c r="E3" t="str">
+        <v> jangle pop</v>
+      </c>
+      <c r="F3" t="str">
+        <v> slacker rock</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="str" cm="1">
+        <f t="array" ref="B4:F4">_xlfn.TEXTSPLIT(A4,",")</f>
+        <v>hard rock</v>
+      </c>
+      <c r="C4" t="str">
+        <v> heavy metal</v>
+      </c>
+      <c r="D4" t="str">
+        <v> arena rock</v>
+      </c>
+      <c r="E4" t="str">
+        <v> pop rock</v>
+      </c>
+      <c r="F4" t="str">
+        <v> progressive rock</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="str" cm="1">
+        <f t="array" ref="B5:H5">_xlfn.TEXTSPLIT(A5,",")</f>
+        <v>Latin rock</v>
+      </c>
+      <c r="C5" t="str">
+        <v> rock en español</v>
+      </c>
+      <c r="D5" t="str">
+        <v> Latin pop</v>
+      </c>
+      <c r="E5" t="str">
+        <v> cumbia</v>
+      </c>
+      <c r="F5" t="str">
+        <v> hard rock</v>
+      </c>
+      <c r="G5" t="str">
+        <v> heavy metal</v>
+      </c>
+      <c r="H5" t="str">
+        <v> thrash metal</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="str" cm="1">
+        <f t="array" ref="B6:D6">_xlfn.TEXTSPLIT(A6,",")</f>
+        <v>pop</v>
+      </c>
+      <c r="C6" t="str">
+        <v> rock</v>
+      </c>
+      <c r="D6" t="str">
+        <v> r&amp;b</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="str" cm="1">
+        <f t="array" ref="B7:H7">_xlfn.TEXTSPLIT(A7,",")</f>
+        <v>alternative rock</v>
+      </c>
+      <c r="C7" t="str">
+        <v> power pop</v>
+      </c>
+      <c r="D7" t="str">
+        <v> pop rock</v>
+      </c>
+      <c r="E7" t="str">
+        <v> indie rock</v>
+      </c>
+      <c r="F7" t="str">
+        <v> pop-punk</v>
+      </c>
+      <c r="G7" t="str">
+        <v> geek rock</v>
+      </c>
+      <c r="H7" t="str">
+        <v> emo</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="str" cm="1">
+        <f t="array" ref="B8:E8">_xlfn.TEXTSPLIT(A8,",")</f>
+        <v>rock</v>
+      </c>
+      <c r="C8" t="str">
+        <v> indie rock</v>
+      </c>
+      <c r="D8" t="str">
+        <v> pop rock</v>
+      </c>
+      <c r="E8" t="str">
+        <v> heartland rock</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="str" cm="1">
+        <f t="array" ref="B9:D9">_xlfn.TEXTSPLIT(A9,",")</f>
+        <v>Americana</v>
+      </c>
+      <c r="C9" t="str">
+        <v> folk</v>
+      </c>
+      <c r="D9" t="str">
+        <v> Southern rock</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="str" cm="1">
+        <f t="array" ref="B10:G10">_xlfn.TEXTSPLIT(A10,",")</f>
+        <v>Electronic</v>
+      </c>
+      <c r="C10" t="str">
+        <v> alternative rock</v>
+      </c>
+      <c r="D10" t="str">
+        <v> alternative dance</v>
+      </c>
+      <c r="E10" t="str">
+        <v> electro</v>
+      </c>
+      <c r="F10" t="str">
+        <v> experimental</v>
+      </c>
+      <c r="G10" t="str">
+        <v> Mexican music</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="str" cm="1">
+        <f t="array" ref="B13:D13">_xlfn.TEXTSPLIT(A13,",")</f>
+        <v>hard rock</v>
+      </c>
+      <c r="C13" t="str">
+        <v> blues rock</v>
+      </c>
+      <c r="D13" t="str">
+        <v> garage rock</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="str" cm="1">
+        <f t="array" ref="B14:E14">_xlfn.TEXTSPLIT(A14,",")</f>
+        <v>rock</v>
+      </c>
+      <c r="C14" t="str">
+        <v> pop</v>
+      </c>
+      <c r="D14" t="str">
+        <v> art rock</v>
+      </c>
+      <c r="E14" t="str">
+        <v> indie rock</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="str" cm="1">
+        <f t="array" ref="B15:F15">_xlfn.TEXTSPLIT(A15,",")</f>
+        <v>hard rock</v>
+      </c>
+      <c r="C15" t="str">
+        <v> garage rock</v>
+      </c>
+      <c r="D15" t="str">
+        <v> garage punk</v>
+      </c>
+      <c r="E15" t="str">
+        <v> power pop</v>
+      </c>
+      <c r="F15" t="str">
+        <v> glam rock</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="str" cm="1">
+        <f t="array" ref="B16:C16">_xlfn.TEXTSPLIT(A16,",")</f>
+        <v>rock</v>
+      </c>
+      <c r="C16" t="str">
+        <v> k-rock</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="str" cm="1">
+        <f t="array" ref="B17:I17">_xlfn.TEXTSPLIT(A17,",")</f>
+        <v>alternative rock</v>
+      </c>
+      <c r="C17" t="str">
+        <v> progressive rock</v>
+      </c>
+      <c r="D17" t="str">
+        <v> experimental rock</v>
+      </c>
+      <c r="E17" t="str">
+        <v> alternative metal</v>
+      </c>
+      <c r="F17" t="str">
+        <v> pop rock</v>
+      </c>
+      <c r="G17" t="str">
+        <v> post-hardcore</v>
+      </c>
+      <c r="H17" t="str">
+        <v> art rock</v>
+      </c>
+      <c r="I17" t="str">
+        <v> post-grunge</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="str" cm="1">
+        <f t="array" ref="B18:D18">_xlfn.TEXTSPLIT(A18,",")</f>
+        <v>punk rock</v>
+      </c>
+      <c r="C18" t="str">
+        <v> hardcore punk</v>
+      </c>
+      <c r="D18" t="str">
+        <v> garage punk</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="str" cm="1">
+        <f t="array" ref="B19">_xlfn.TEXTSPLIT(A19,",")</f>
+        <v>hardcore punk</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="str" cm="1">
+        <f t="array" ref="B20:D20">_xlfn.TEXTSPLIT(A20,",")</f>
+        <v>punk rock</v>
+      </c>
+      <c r="C20" t="str">
+        <v> hardcore punk</v>
+      </c>
+      <c r="D20" t="str">
+        <v> pop punk</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="str" cm="1">
+        <f t="array" ref="B21:G21">_xlfn.TEXTSPLIT(A21,",")</f>
+        <v>Nu metal</v>
+      </c>
+      <c r="C21" t="str">
+        <v> alternative metal</v>
+      </c>
+      <c r="D21" t="str">
+        <v> groove metal</v>
+      </c>
+      <c r="E21" t="str">
+        <v> heavy metal</v>
+      </c>
+      <c r="F21" t="str">
+        <v> hard rock</v>
+      </c>
+      <c r="G21" t="str">
+        <v> post-grunge</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="str" cm="1">
+        <f t="array" ref="B22:G22">_xlfn.TEXTSPLIT(A22,",")</f>
+        <v>alternative rock</v>
+      </c>
+      <c r="C22" t="str">
+        <v> indie rock</v>
+      </c>
+      <c r="D22" t="str">
+        <v> psychedelic rock</v>
+      </c>
+      <c r="E22" t="str">
+        <v> garage rock</v>
+      </c>
+      <c r="F22" t="str">
+        <v> punk blues</v>
+      </c>
+      <c r="G22" t="str">
+        <v> post-punk</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="str" cm="1">
+        <f t="array" ref="B23:C23">_xlfn.TEXTSPLIT(A23,",")</f>
+        <v>electronic rock</v>
+      </c>
+      <c r="C23" t="str">
+        <v> bollywood</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="str" cm="1">
+        <f t="array" ref="B24:C24">_xlfn.TEXTSPLIT(A24,",")</f>
+        <v>gully rap</v>
+      </c>
+      <c r="C24" t="str">
+        <v> hip hop</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="str" cm="1">
+        <f t="array" ref="B25:D25">_xlfn.TEXTSPLIT(A25,",")</f>
+        <v>Indian film pop</v>
+      </c>
+      <c r="C25" t="str">
+        <v> pop</v>
+      </c>
+      <c r="D25" t="str">
+        <v> bollywood</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B26" t="str" cm="1">
+        <f t="array" ref="B26:F26">_xlfn.TEXTSPLIT(A26,",")</f>
+        <v>Indie rock</v>
+      </c>
+      <c r="C26" t="str">
+        <v> punk rock</v>
+      </c>
+      <c r="D26" t="str">
+        <v> pop punk</v>
+      </c>
+      <c r="E26" t="str">
+        <v> garage punk</v>
+      </c>
+      <c r="F26" t="str">
+        <v> indie pop</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="str" cm="1">
+        <f t="array" ref="B27:D27">_xlfn.TEXTSPLIT(A27,",")</f>
+        <v>East Coast hip hop</v>
+      </c>
+      <c r="C27" t="str">
+        <v> psychedelic rap</v>
+      </c>
+      <c r="D27" t="str">
+        <v> alternative hip hop</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="str" cm="1">
+        <f t="array" ref="B28">_xlfn.TEXTSPLIT(A28,",")</f>
+        <v>hip hop</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" t="str" cm="1">
+        <f t="array" ref="B29:F29">_xlfn.TEXTSPLIT(A29,",")</f>
+        <v>Country pop</v>
+      </c>
+      <c r="C29" t="str">
+        <v> electropop</v>
+      </c>
+      <c r="D29" t="str">
+        <v> funk</v>
+      </c>
+      <c r="E29" t="str">
+        <v> Latin pop</v>
+      </c>
+      <c r="F29" t="str">
+        <v> pop rock</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="str" cm="1">
+        <f t="array" ref="B30:G30">_xlfn.TEXTSPLIT(A30,",")</f>
+        <v>alternative rock</v>
+      </c>
+      <c r="C30" t="str">
+        <v> pop punk</v>
+      </c>
+      <c r="D30" t="str">
+        <v> punk rock</v>
+      </c>
+      <c r="E30" t="str">
+        <v> emo</v>
+      </c>
+      <c r="F30" t="str">
+        <v> skate punk</v>
+      </c>
+      <c r="G30" t="str">
+        <v> hard rock</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="str" cm="1">
+        <f t="array" ref="B31:F31">_xlfn.TEXTSPLIT(A31,",")</f>
+        <v>indie rock</v>
+      </c>
+      <c r="C31" t="str">
+        <v> electro-soul</v>
+      </c>
+      <c r="D31" t="str">
+        <v> folk</v>
+      </c>
+      <c r="E31" t="str">
+        <v> art rock</v>
+      </c>
+      <c r="F31" t="str">
+        <v> baroque pop</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="str" cm="1">
+        <f t="array" ref="B32:E32">_xlfn.TEXTSPLIT(A32,",")</f>
+        <v>reggaeton</v>
+      </c>
+      <c r="C32" t="str">
+        <v> urbano</v>
+      </c>
+      <c r="D32" t="str">
+        <v> latin pop</v>
+      </c>
+      <c r="E32" t="str">
+        <v> latin trap</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" t="str" cm="1">
+        <f t="array" ref="B33:E33">_xlfn.TEXTSPLIT(A33,",")</f>
+        <v>electronic</v>
+      </c>
+      <c r="C33" t="str">
+        <v> drum and bass</v>
+      </c>
+      <c r="D33" t="str">
+        <v> big beat</v>
+      </c>
+      <c r="E33" t="str">
+        <v> hip hop</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" t="str" cm="1">
+        <f t="array" ref="B34:C34">_xlfn.TEXTSPLIT(A34,",")</f>
+        <v>grime</v>
+      </c>
+      <c r="C34" t="str">
+        <v> hip hop</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="str" cm="1">
+        <f t="array" ref="B35:D35">_xlfn.TEXTSPLIT(A35,",")</f>
+        <v>hip hop</v>
+      </c>
+      <c r="C35" t="str">
+        <v> r&amp;b</v>
+      </c>
+      <c r="D35" t="str">
+        <v> pop</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" t="str" cm="1">
+        <f t="array" ref="B36:C36">_xlfn.TEXTSPLIT(A36,",")</f>
+        <v>country</v>
+      </c>
+      <c r="C36" t="str">
+        <v> neotraditional country</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="str" cm="1">
+        <f t="array" ref="B37:F37">_xlfn.TEXTSPLIT(A37,",")</f>
+        <v>electro house</v>
+      </c>
+      <c r="C37" t="str">
+        <v> electro</v>
+      </c>
+      <c r="D37" t="str">
+        <v> house</v>
+      </c>
+      <c r="E37" t="str">
+        <v> glitch</v>
+      </c>
+      <c r="F37" t="str">
+        <v> experimental</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="str" cm="1">
+        <f t="array" ref="B38:F38">_xlfn.TEXTSPLIT(A38,",")</f>
+        <v>alternative rock</v>
+      </c>
+      <c r="C38" t="str">
+        <v> psychedelic rock</v>
+      </c>
+      <c r="D38" t="str">
+        <v> psychedelic pop</v>
+      </c>
+      <c r="E38" t="str">
+        <v> experimental rock</v>
+      </c>
+      <c r="F38" t="str">
+        <v> indie rock</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" t="str" cm="1">
+        <f t="array" ref="B39:C39">_xlfn.TEXTSPLIT(A39,",")</f>
+        <v>stoner rock</v>
+      </c>
+      <c r="C39" t="str">
+        <v> sludge metal</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" t="str" cm="1">
+        <f t="array" ref="B40:G40">_xlfn.TEXTSPLIT(A40,",")</f>
+        <v>heavy metal</v>
+      </c>
+      <c r="C40" t="str">
+        <v> hard rock</v>
+      </c>
+      <c r="D40" t="str">
+        <v> rockabilly</v>
+      </c>
+      <c r="E40" t="str">
+        <v> psychobilly</v>
+      </c>
+      <c r="F40" t="str">
+        <v> groove metal</v>
+      </c>
+      <c r="G40" t="str">
+        <v> rock and roll</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" t="str" cm="1">
+        <f t="array" ref="B41">_xlfn.TEXTSPLIT(A41,",")</f>
+        <v>folk metal</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" t="str" cm="1">
+        <f t="array" ref="B42:D42">_xlfn.TEXTSPLIT(A42,",")</f>
+        <v>nigerian pop</v>
+      </c>
+      <c r="C42" t="str">
+        <v> alte</v>
+      </c>
+      <c r="D42" t="str">
+        <v> r&amp;b</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" t="str" cm="1">
+        <f t="array" ref="B43:E43">_xlfn.TEXTSPLIT(A43,",")</f>
+        <v>indie rock</v>
+      </c>
+      <c r="C43" t="str">
+        <v> indie folk</v>
+      </c>
+      <c r="D43" t="str">
+        <v> indie pop</v>
+      </c>
+      <c r="E43" t="str">
+        <v> emo-folk</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" t="str" cm="1">
+        <f t="array" ref="B44:D44">_xlfn.TEXTSPLIT(A44,",")</f>
+        <v>pop</v>
+      </c>
+      <c r="C44" t="str">
+        <v> rock</v>
+      </c>
+      <c r="D44" t="str">
+        <v> country</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" t="str" cm="1">
+        <f t="array" ref="B45">_xlfn.TEXTSPLIT(A45,",")</f>
+        <v>rock</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" t="str" cm="1">
+        <f t="array" ref="B46:F46">_xlfn.TEXTSPLIT(A46,",")</f>
+        <v>rock</v>
+      </c>
+      <c r="C46" t="str">
+        <v> pop rock</v>
+      </c>
+      <c r="D46" t="str">
+        <v> glam rock</v>
+      </c>
+      <c r="E46" t="str">
+        <v> soft rock</v>
+      </c>
+      <c r="F46" t="str">
+        <v> blues</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" t="str" cm="1">
+        <f t="array" ref="B47">_xlfn.TEXTSPLIT(A47,",")</f>
+        <v>classical</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" t="str" cm="1">
+        <f t="array" ref="B48:E48">_xlfn.TEXTSPLIT(A48,",")</f>
+        <v>heavy metal</v>
+      </c>
+      <c r="C48" t="str">
+        <v> thrash metal</v>
+      </c>
+      <c r="D48" t="str">
+        <v> funk metal</v>
+      </c>
+      <c r="E48" t="str">
+        <v> crossover thrash</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" t="str" cm="1">
+        <f t="array" ref="B49:D49">_xlfn.TEXTSPLIT(A49,",")</f>
+        <v>funk rock</v>
+      </c>
+      <c r="C49" t="str">
+        <v> alternative rock</v>
+      </c>
+      <c r="D49" t="str">
+        <v> hard rock</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" t="str" cm="1">
+        <f t="array" ref="B50:F50">_xlfn.TEXTSPLIT(A50,",")</f>
+        <v>synth-pop</v>
+      </c>
+      <c r="C50" t="str">
+        <v> electronic</v>
+      </c>
+      <c r="D50" t="str">
+        <v> new wave</v>
+      </c>
+      <c r="E50" t="str">
+        <v> alternative rock</v>
+      </c>
+      <c r="F50" t="str">
+        <v> alternative dance</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" t="str" cm="1">
+        <f t="array" ref="B51:C51">_xlfn.TEXTSPLIT(A51,",")</f>
+        <v>country</v>
+      </c>
+      <c r="C51" t="str">
+        <v> r&amp;b</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B52" t="str" cm="1">
+        <f t="array" ref="B52:E52">_xlfn.TEXTSPLIT(A52,",")</f>
+        <v>pop</v>
+      </c>
+      <c r="C52" t="str">
+        <v> rock</v>
+      </c>
+      <c r="D52" t="str">
+        <v> folk</v>
+      </c>
+      <c r="E52" t="str">
+        <v> hip hop</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" t="str" cm="1">
+        <f t="array" ref="B53:H53">_xlfn.TEXTSPLIT(A53,",")</f>
+        <v>Música cebolla</v>
+      </c>
+      <c r="C53" t="str">
+        <v> Latin alternative</v>
+      </c>
+      <c r="D53" t="str">
+        <v> indie pop</v>
+      </c>
+      <c r="E53" t="str">
+        <v> bolero</v>
+      </c>
+      <c r="F53" t="str">
+        <v> altnerative metal</v>
+      </c>
+      <c r="G53" t="str">
+        <v> alternative rock</v>
+      </c>
+      <c r="H53" t="str">
+        <v> enka</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" t="str" cm="1">
+        <f t="array" ref="B54">_xlfn.TEXTSPLIT(A54,",")</f>
+        <v>classical</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" t="str" cm="1">
+        <f t="array" ref="B55:H55">_xlfn.TEXTSPLIT(A55,",")</f>
+        <v>indie rock</v>
+      </c>
+      <c r="C55" t="str">
+        <v> art rock</v>
+      </c>
+      <c r="D55" t="str">
+        <v> psychedelic rock</v>
+      </c>
+      <c r="E55" t="str">
+        <v> alternative country</v>
+      </c>
+      <c r="F55" t="str">
+        <v> Southern rock</v>
+      </c>
+      <c r="G55" t="str">
+        <v> jam</v>
+      </c>
+      <c r="H55" t="str">
+        <v> Americana</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" t="str" cm="1">
+        <f t="array" ref="B56:F56">_xlfn.TEXTSPLIT(A56,",")</f>
+        <v>pop</v>
+      </c>
+      <c r="C56" t="str">
+        <v> rock</v>
+      </c>
+      <c r="D56" t="str">
+        <v> dance</v>
+      </c>
+      <c r="E56" t="str">
+        <v> soul</v>
+      </c>
+      <c r="F56" t="str">
+        <v> R&amp;B</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" t="str" cm="1">
+        <f t="array" ref="B57:G57">_xlfn.TEXTSPLIT(A57,",")</f>
+        <v>rock</v>
+      </c>
+      <c r="C57" t="str">
+        <v> pop</v>
+      </c>
+      <c r="D57" t="str">
+        <v> country</v>
+      </c>
+      <c r="E57" t="str">
+        <v> R&amp;B</v>
+      </c>
+      <c r="F57" t="str">
+        <v> blues</v>
+      </c>
+      <c r="G57" t="str">
+        <v> alternative rock</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" t="str" cm="1">
+        <f t="array" ref="B58">_xlfn.TEXTSPLIT(A58,",")</f>
+        <v>country</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" t="str" cm="1">
+        <f t="array" ref="B59:E59">_xlfn.TEXTSPLIT(A59,",")</f>
+        <v>country</v>
+      </c>
+      <c r="C59" t="str">
+        <v> soul</v>
+      </c>
+      <c r="D59" t="str">
+        <v> Southern rock</v>
+      </c>
+      <c r="E59" t="str">
+        <v> bluegrass</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" t="str" cm="1">
+        <f t="array" ref="B60:E60">_xlfn.TEXTSPLIT(A60,",")</f>
+        <v>Afro pop</v>
+      </c>
+      <c r="C60" t="str">
+        <v> Afrobeats</v>
+      </c>
+      <c r="D60" t="str">
+        <v> pop</v>
+      </c>
+      <c r="E60" t="str">
+        <v> dance</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" t="str" cm="1">
+        <f t="array" ref="B61:C61">_xlfn.TEXTSPLIT(A61,",")</f>
+        <v>folk rock</v>
+      </c>
+      <c r="C61" t="str">
+        <v> Americana</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" t="str" cm="1">
+        <f t="array" ref="B62:F62">_xlfn.TEXTSPLIT(A62,",")</f>
+        <v>punk rock</v>
+      </c>
+      <c r="C62" t="str">
+        <v> post-punk</v>
+      </c>
+      <c r="D62" t="str">
+        <v> post-hardcore</v>
+      </c>
+      <c r="E62" t="str">
+        <v> hardcore punk</v>
+      </c>
+      <c r="F62" t="str">
+        <v> art rock</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B63" t="str" cm="1">
+        <f t="array" ref="B63">_xlfn.TEXTSPLIT(A63,",")</f>
+        <v>rockabilly</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B64" t="str" cm="1">
+        <f t="array" ref="B64:E64">_xlfn.TEXTSPLIT(A64,",")</f>
+        <v>noise pop</v>
+      </c>
+      <c r="C64" t="str">
+        <v> garage rock</v>
+      </c>
+      <c r="D64" t="str">
+        <v> indie rock</v>
+      </c>
+      <c r="E64" t="str">
+        <v> grunge</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" t="str" cm="1">
+        <f t="array" ref="B65">_xlfn.TEXTSPLIT(A65,",")</f>
+        <v>rock</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B66" t="str" cm="1">
+        <f t="array" ref="B66">_xlfn.TEXTSPLIT(A66,",")</f>
+        <v>jazz</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B67" t="str" cm="1">
+        <f t="array" ref="B67:D67">_xlfn.TEXTSPLIT(A67,",")</f>
+        <v>acoustic</v>
+      </c>
+      <c r="C67" t="str">
+        <v> flamenco nuevo</v>
+      </c>
+      <c r="D67" t="str">
+        <v> instrumental rock</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,B1:H67)</f>
+        <v>pop, r&amp;b,rock, hard rock,indie rock, indie pop, psychedelic pop, jangle pop, slacker rock,hard rock, heavy metal, arena rock, pop rock, progressive rock,Latin rock, rock en español, Latin pop, cumbia, hard rock, heavy metal, thrash metal,pop, rock, r&amp;b,alternative rock, power pop, pop rock, indie rock, pop-punk, geek rock, emo,rock, indie rock, pop rock, heartland rock,Americana, folk, Southern rock,Electronic, alternative rock, alternative dance, electro, experimental, Mexican music,hard rock, blues rock, garage rock,rock, pop, art rock, indie rock,hard rock, garage rock, garage punk, power pop, glam rock,rock, k-rock,alternative rock, progressive rock, experimental rock, alternative metal, pop rock, post-hardcore, art rock,punk rock, hardcore punk, garage punk,hardcore punk,punk rock, hardcore punk, pop punk,Nu metal, alternative metal, groove metal, heavy metal, hard rock, post-grunge,alternative rock, indie rock, psychedelic rock, garage rock, punk blues, post-punk,electronic rock, bollywood,gully rap, hip hop,Indian film pop, pop, bollywood,Indie rock, punk rock, pop punk, garage punk, indie pop,East Coast hip hop, psychedelic rap, alternative hip hop,hip hop,Country pop, electropop, funk, Latin pop, pop rock,alternative rock, pop punk, punk rock, emo, skate punk, hard rock,indie rock, electro-soul, folk, art rock, baroque pop,reggaeton, urbano, latin pop, latin trap,electronic, drum and bass, big beat, hip hop,grime, hip hop,hip hop, r&amp;b, pop,country, neotraditional country,electro house, electro, house, glitch, experimental,alternative rock, psychedelic rock, psychedelic pop, experimental rock, indie rock,stoner rock, sludge metal,heavy metal, hard rock, rockabilly, psychobilly, groove metal, rock and roll,folk metal,nigerian pop, alte, r&amp;b,indie rock, indie folk, indie pop, emo-folk,pop, rock, country,rock,rock, pop rock, glam rock, soft rock, blues,classical,heavy metal, thrash metal, funk metal, crossover thrash,funk rock, alternative rock, hard rock,synth-pop, electronic, new wave, alternative rock, alternative dance,country, r&amp;b,pop, rock, folk, hip hop,Música cebolla, Latin alternative, indie pop, bolero, altnerative metal, alternative rock, enka,classical,indie rock, art rock, psychedelic rock, alternative country, Southern rock, jam, Americana,pop, rock, dance, soul, R&amp;B,rock, pop, country, R&amp;B, blues, alternative rock,country,country, soul, Southern rock, bluegrass,Afro pop, Afrobeats, pop, dance,folk rock, Americana,punk rock, post-punk, post-hardcore, hardcore punk, art rock,rockabilly,noise pop, garage rock, indie rock, grunge,rock,jazz,acoustic, flamenco nuevo, instrumental rock</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A582"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.8108108108108" defaultRowHeight="14.55"/>
+  <cols>
+    <col min="1" max="16384" width="11.8108108108108" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="1"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="1"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="1"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="1"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="1"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="1"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="1"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="1"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="1"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="1"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="1"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="1"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="1"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="1"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="1"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="1"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="1"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="1"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="1"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="1"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="1"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="1"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1"/>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="1"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="1"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="1"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="1"/>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="1"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="1"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="1"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="1"/>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="1"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="1"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="1"/>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="1"/>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="1"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="1"/>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="1"/>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="1"/>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="1"/>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="1"/>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="1"/>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="1"/>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="1"/>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="1"/>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="1"/>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="1"/>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="1"/>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="1"/>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="1"/>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="1"/>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="1"/>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="1"/>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="1"/>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="1"/>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="1"/>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="1"/>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="1"/>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="1"/>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="1"/>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="1"/>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="1"/>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="1"/>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="1"/>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="1"/>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="1"/>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="1"/>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="1"/>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="1"/>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="1"/>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="1"/>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="1"/>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="1"/>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="1"/>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="1"/>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="1"/>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="1"/>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1"/>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="1"/>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="1"/>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="1"/>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="1"/>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="1"/>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="1"/>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="1"/>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="1"/>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="1"/>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="1"/>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="1"/>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="1"/>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="1"/>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="1"/>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="1"/>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="1"/>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="1"/>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="1"/>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="1"/>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="1"/>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="1"/>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="1"/>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="1"/>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="1"/>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="1"/>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="1"/>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="1"/>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="1"/>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="1"/>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="1"/>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="1"/>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="1"/>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="1"/>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="1"/>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="1"/>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="1"/>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="1"/>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="1"/>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="1"/>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="1"/>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="1"/>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="1"/>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="1"/>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="1"/>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="1"/>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="1"/>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="1"/>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="1"/>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="1"/>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="1"/>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="1"/>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="1"/>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="1"/>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="1"/>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="1"/>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="1"/>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="1"/>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="1"/>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="1"/>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="1"/>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="1"/>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="1"/>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="1"/>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="1"/>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="1"/>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="1"/>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="1"/>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="1"/>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="1"/>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="1"/>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="1"/>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="1"/>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="1"/>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="1"/>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="1"/>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="1"/>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="1"/>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="1"/>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="1"/>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="1"/>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="1"/>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="1"/>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="1"/>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="1"/>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="1"/>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="1"/>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="1"/>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="1"/>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="1"/>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="1"/>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="1"/>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="1"/>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="1"/>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="1"/>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="1"/>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="1"/>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="1"/>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="1"/>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="1"/>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="1"/>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="1"/>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="1"/>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="1"/>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="1"/>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="1"/>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="1"/>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="1"/>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="1"/>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="1"/>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="1"/>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="1"/>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="1"/>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="1"/>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="1"/>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="1"/>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="1"/>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="1"/>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="1"/>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="1"/>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="1"/>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="1"/>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="1"/>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="1"/>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="1"/>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="1"/>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="1"/>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="1"/>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="1"/>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="1"/>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="1"/>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="1"/>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="1"/>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="1"/>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="1"/>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="1"/>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="1"/>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="1"/>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="1"/>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="1"/>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="1"/>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="1"/>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="1"/>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="1"/>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="1"/>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="1"/>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="1"/>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="1"/>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="1"/>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="1"/>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="1"/>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="1"/>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="1"/>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="1"/>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="1"/>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="1"/>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="1"/>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="1"/>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="1"/>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="1"/>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="1"/>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="1"/>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="1"/>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="1"/>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="1"/>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="1"/>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="1"/>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="1"/>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="1"/>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="1"/>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="1"/>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="1"/>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="1"/>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="1"/>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="1"/>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="1"/>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="1"/>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="1"/>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="1"/>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="1"/>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="1"/>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="1"/>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="1"/>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="1"/>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="1"/>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="1"/>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="1"/>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="1"/>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="1"/>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="1"/>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="1"/>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="1"/>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="1"/>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="1"/>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="1"/>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="1"/>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="1"/>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="1"/>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="1"/>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="1"/>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="1"/>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="1"/>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="1"/>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="1"/>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="1"/>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="1"/>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="1"/>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="1"/>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="1"/>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="1"/>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="1"/>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="1"/>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="1"/>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="1"/>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="1"/>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="1"/>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="1"/>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="1"/>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="1"/>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="1"/>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="1"/>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="1"/>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="1"/>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="1"/>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="1"/>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="1"/>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="1"/>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="1"/>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="1"/>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="1"/>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" s="1"/>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="1"/>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" s="1"/>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" s="1"/>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" s="1"/>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="1"/>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="1"/>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" s="1"/>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="1"/>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="1"/>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="1"/>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" s="1"/>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="1"/>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="1"/>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" s="1"/>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" s="1"/>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" s="1"/>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="1"/>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="1"/>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" s="1"/>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="1"/>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="1"/>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="1"/>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="1"/>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="1"/>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="1"/>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="1"/>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="1"/>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="1"/>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" s="1"/>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" s="1"/>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="1"/>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="1"/>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" s="1"/>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" s="1"/>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" s="1"/>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" s="1"/>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" s="1"/>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" s="1"/>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" s="1"/>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" s="1"/>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" s="1"/>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" s="1"/>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" s="1"/>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" s="1"/>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" s="1"/>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/tracklist.xlsx
+++ b/tracklist.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10577" windowHeight="9737" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="21942" windowHeight="9737"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="duration and representation" sheetId="5" r:id="rId4"/>
-    <sheet name="demographics" sheetId="6" r:id="rId5"/>
-    <sheet name="generation" sheetId="7" r:id="rId6"/>
-    <sheet name="genres" sheetId="8" r:id="rId7"/>
-    <sheet name="Metallica albums release dates" sheetId="9" r:id="rId8"/>
+    <sheet name="Metallica albums release dates" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="duration and representation" sheetId="5" r:id="rId5"/>
+    <sheet name="demographics" sheetId="6" r:id="rId6"/>
+    <sheet name="generation" sheetId="7" r:id="rId7"/>
+    <sheet name="genres" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.6" hidden="1">generation!$D$6:$D$14</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="443">
   <si>
     <t>Song</t>
   </si>
@@ -121,6 +121,12 @@
     <t>Generation</t>
   </si>
   <si>
+    <t>Latest Metallica Album at Debut</t>
+  </si>
+  <si>
+    <t>First Metallica Album since Birth</t>
+  </si>
+  <si>
     <t>Enter Sandman</t>
   </si>
   <si>
@@ -301,6 +307,9 @@
     <t>Jason Isbell</t>
   </si>
   <si>
+    <t>St. Anger</t>
+  </si>
+  <si>
     <t>M, F</t>
   </si>
   <si>
@@ -598,6 +607,9 @@
     <t>Alex Luciano</t>
   </si>
   <si>
+    <t>Hardwired... to Self-Destruct</t>
+  </si>
+  <si>
     <t>Save our Stages</t>
   </si>
   <si>
@@ -643,6 +655,9 @@
     <t>Hanna Nicole Perez</t>
   </si>
   <si>
+    <t>Reload</t>
+  </si>
+  <si>
     <t>Nuevo Amanecer</t>
   </si>
   <si>
@@ -811,6 +826,9 @@
     <t>Star Hustler</t>
   </si>
   <si>
+    <t>Load</t>
+  </si>
+  <si>
     <t>Børne Cancer Fonden Denmark</t>
   </si>
   <si>
@@ -1261,6 +1279,27 @@
     <t>Gabriela Quintero</t>
   </si>
   <si>
+    <t>Kill 'Em All</t>
+  </si>
+  <si>
+    <t>Ride the Lightning</t>
+  </si>
+  <si>
+    <t>Master of Puppets</t>
+  </si>
+  <si>
+    <t>...And Justice for All</t>
+  </si>
+  <si>
+    <t>Metallica</t>
+  </si>
+  <si>
+    <t>Death Magnetic</t>
+  </si>
+  <si>
+    <t>72 Seasons</t>
+  </si>
+  <si>
     <t>Song on Original</t>
   </si>
   <si>
@@ -1358,39 +1397,6 @@
   </si>
   <si>
     <t>pop, rock, folk, hip hop</t>
-  </si>
-  <si>
-    <t>Kill 'Em All</t>
-  </si>
-  <si>
-    <t>Ride the Lightning</t>
-  </si>
-  <si>
-    <t>Master of Puppets</t>
-  </si>
-  <si>
-    <t>...And Justice for All</t>
-  </si>
-  <si>
-    <t>Metallica</t>
-  </si>
-  <si>
-    <t>Load</t>
-  </si>
-  <si>
-    <t>Reload</t>
-  </si>
-  <si>
-    <t>St. Anger</t>
-  </si>
-  <si>
-    <t>Death Magnetic</t>
-  </si>
-  <si>
-    <t>Hardwired... to Self-Destruct</t>
-  </si>
-  <si>
-    <t>72 Seasons</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2157,6 @@
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2188,6 +2193,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10151,10 +10157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="P60" sqref="P60"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
@@ -10173,13 +10179,13 @@
     <col min="12" max="12" width="15.7657657657658" style="25" customWidth="1"/>
     <col min="13" max="14" width="24.6306306306306" style="25" customWidth="1"/>
     <col min="15" max="16" width="15.7657657657658" style="25" customWidth="1"/>
-    <col min="17" max="17" width="15.9009009009009" style="3" customWidth="1"/>
-    <col min="18" max="18" width="29.7837837837838" style="3" customWidth="1"/>
-    <col min="19" max="19" width="28.5765765765766" style="3" customWidth="1"/>
-    <col min="20" max="16383" width="9" style="3"/>
+    <col min="17" max="17" width="15.9009009009009" style="2" customWidth="1"/>
+    <col min="18" max="18" width="22.0540540540541" style="2" customWidth="1"/>
+    <col min="19" max="19" width="28.5765765765766" style="2" customWidth="1"/>
+    <col min="20" max="16383" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" ht="29.15" spans="1:17">
+    <row r="1" s="24" customFormat="1" ht="29.15" spans="1:19">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -10231,40 +10237,46 @@
       <c r="Q1" s="24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:17">
+      <c r="R1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:18">
       <c r="A2" s="27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="28">
         <v>0.183333333333333</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>24</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>22</v>
       </c>
       <c r="L2" s="78">
         <v>42321</v>
@@ -10274,7 +10286,7 @@
         <v>2015</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O2" s="78">
         <v>35257</v>
@@ -10283,12 +10295,16 @@
         <f t="shared" ref="P2:P65" si="1">IF(O2&lt;2021,O2,YEAR(O2))</f>
         <v>1996</v>
       </c>
-      <c r="Q2" s="2" t="str">
+      <c r="Q2" s="1" t="str">
         <f t="shared" ref="Q2:Q65" si="2">IF(P2&gt;=1997,"Generation Z",IF(P2&gt;=1981,"Millennial",IF(P2&gt;=1965,"Generation X",IF(P2&gt;=1946,"Baby Boomer","Unknown"))))</f>
         <v>Millennial</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:17">
+      <c r="R2" s="1" t="str">
+        <f t="shared" ref="R2:R65" si="3">IF(M2&gt;2017,"Hardwired... to Self-Destruct",IF(AND(M2&gt;2008,M2&lt;2016),"Death Magnetic",IF(AND(M2&gt;2003,M2&lt;2008),"St. Anger",IF(AND(M2&gt;1997,M2&lt;2003),"Reload",IF(AND(M2&gt;1991,M2&lt;1996),"Metallica",IF(AND(M2&gt;1988,M2&lt;1991),"...And Justice for All",IF(M2=1987,"Master of Puppets",IF(M2=1985,"Ride the Lightning",IF(M2&lt;1983,"Pre-Metallica","")))))))))</f>
+        <v>Death Magnetic</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="31"/>
       <c r="B3" s="28"/>
       <c r="C3" s="27"/>
@@ -10296,19 +10312,19 @@
       <c r="E3" s="32"/>
       <c r="F3" s="33"/>
       <c r="G3" s="31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>26</v>
       </c>
       <c r="L3" s="78">
         <v>42108</v>
@@ -10318,7 +10334,7 @@
         <v>2015</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O3" s="78">
         <v>36555</v>
@@ -10327,44 +10343,48 @@
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="Q3" s="2" t="str">
+      <c r="Q3" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation Z</v>
       </c>
+      <c r="R3" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="34">
         <v>0.240277777777778</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I4" s="25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L4" s="79">
         <v>39933</v>
@@ -10374,7 +10394,7 @@
         <v>2009</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O4" s="79">
         <v>32993</v>
@@ -10383,45 +10403,48 @@
         <f t="shared" si="1"/>
         <v>1990</v>
       </c>
-      <c r="Q4" s="2" t="str">
+      <c r="Q4" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" s="4" customFormat="1" ht="29.15" spans="1:18">
+      <c r="R4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="29.15" spans="1:18">
       <c r="A5" s="35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="36">
         <v>0.160416666666667</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I5" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="35" t="s">
         <v>41</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>39</v>
       </c>
       <c r="L5" s="80">
         <v>40469</v>
@@ -10431,7 +10454,7 @@
         <v>2010</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O5" s="80">
         <v>29648</v>
@@ -10440,45 +10463,48 @@
         <f t="shared" si="1"/>
         <v>1981</v>
       </c>
-      <c r="Q5" s="2" t="str">
+      <c r="Q5" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="6" ht="43.7" spans="1:18">
       <c r="A6" s="25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="34">
         <v>0.203472222222222</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H6" s="25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L6" s="79">
         <v>32766</v>
@@ -10488,7 +10514,7 @@
         <v>1989</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O6" s="79">
         <v>26520</v>
@@ -10497,45 +10523,48 @@
         <f t="shared" si="1"/>
         <v>1972</v>
       </c>
-      <c r="Q6" s="2" t="str">
+      <c r="Q6" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation X</v>
       </c>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="29.15" spans="1:18">
+      <c r="R6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>...And Justice for All</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="29.15" spans="1:18">
       <c r="A7" s="35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="36">
         <v>0.231944444444444</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="H7" s="35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I7" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="35" t="s">
         <v>55</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>53</v>
       </c>
       <c r="L7" s="80">
         <v>41386</v>
@@ -10545,7 +10574,7 @@
         <v>2013</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O7" s="80">
         <v>33101</v>
@@ -10554,45 +10583,48 @@
         <f t="shared" si="1"/>
         <v>1990</v>
       </c>
-      <c r="Q7" s="2" t="str">
+      <c r="Q7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="8" ht="29.15" spans="1:18">
       <c r="A8" s="25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="34">
         <v>0.231944444444444</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H8" s="25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="25" t="s">
         <v>61</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="L8">
         <v>1995</v>
@@ -10602,7 +10634,7 @@
         <v>1995</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O8" s="79">
         <v>25732</v>
@@ -10611,45 +10643,48 @@
         <f t="shared" si="1"/>
         <v>1970</v>
       </c>
-      <c r="Q8" s="2" t="str">
+      <c r="Q8" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation X</v>
       </c>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" s="4" customFormat="1" ht="29.15" spans="1:18">
+      <c r="R8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Metallica</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="29.15" spans="1:18">
       <c r="A9" s="35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" s="36">
         <v>0.160416666666667</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I9" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="35" t="s">
         <v>68</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>66</v>
       </c>
       <c r="L9" s="80">
         <v>43424</v>
@@ -10659,7 +10694,7 @@
         <v>2018</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O9" s="80">
         <v>34449</v>
@@ -10668,45 +10703,48 @@
         <f t="shared" si="1"/>
         <v>1994</v>
       </c>
-      <c r="Q9" s="2" t="str">
+      <c r="Q9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Hardwired... to Self-Destruct</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B10" s="34">
         <v>0.1875</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="H10" s="25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L10" s="79">
         <v>37789</v>
@@ -10716,7 +10754,7 @@
         <v>2003</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O10" s="79">
         <v>28887</v>
@@ -10725,45 +10763,47 @@
         <f t="shared" si="1"/>
         <v>1979</v>
       </c>
-      <c r="Q10" s="2" t="str">
+      <c r="Q10" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation X</v>
       </c>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="43.7" spans="1:17">
+      <c r="R10" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="43.7" spans="1:18">
       <c r="A11" s="27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" s="28">
         <v>0.188194444444444</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J11" s="81" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L11">
         <v>2000</v>
@@ -10773,7 +10813,7 @@
         <v>2000</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O11" s="81">
         <v>1975</v>
@@ -10782,30 +10822,34 @@
         <f t="shared" si="1"/>
         <v>1975</v>
       </c>
-      <c r="Q11" s="2" t="str">
+      <c r="Q11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation X</v>
       </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:17">
+      <c r="R11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Reload</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:18">
       <c r="A12" s="27"/>
       <c r="B12" s="28"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
-      <c r="G12" s="2" t="s">
-        <v>86</v>
+      <c r="G12" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L12" s="78">
         <v>43574</v>
@@ -10820,30 +10864,34 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="2" t="str">
+      <c r="Q12" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Unknown</v>
       </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="29.15" spans="1:17">
+      <c r="R12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Hardwired... to Self-Destruct</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="29.15" spans="1:18">
       <c r="A13" s="27"/>
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="2" t="s">
-        <v>89</v>
+      <c r="G13" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L13" s="27">
         <v>2014</v>
@@ -10853,7 +10901,7 @@
         <v>2014</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O13" s="78">
         <v>34530</v>
@@ -10862,44 +10910,48 @@
         <f t="shared" si="1"/>
         <v>1994</v>
       </c>
-      <c r="Q13" s="2" t="str">
+      <c r="Q13" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
+      <c r="R13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B14" s="34">
         <v>0.228472222222222</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>94</v>
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L14" s="25">
         <v>2013</v>
@@ -10909,7 +10961,7 @@
         <v>2013</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O14" s="79">
         <v>33043</v>
@@ -10918,45 +10970,48 @@
         <f t="shared" si="1"/>
         <v>1990</v>
       </c>
-      <c r="Q14" s="2" t="str">
+      <c r="Q14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" s="4" customFormat="1" spans="1:18">
+      <c r="R14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:18">
       <c r="A15" s="35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B15" s="36">
         <v>0.175</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>100</v>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L15" s="35">
         <v>2009</v>
@@ -10966,7 +11021,7 @@
         <v>2009</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O15" s="80">
         <v>30222</v>
@@ -10975,45 +11030,48 @@
         <f t="shared" si="1"/>
         <v>1982</v>
       </c>
-      <c r="Q15" s="2" t="str">
+      <c r="Q15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R15" s="2"/>
+      <c r="R15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="16" ht="29.15" spans="1:18">
       <c r="A16" s="25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B16" s="34">
         <v>0.224305555555556</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>106</v>
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L16" s="25">
         <v>2014</v>
@@ -11023,7 +11081,7 @@
         <v>2014</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O16" s="79">
         <v>34522</v>
@@ -11032,45 +11090,48 @@
         <f t="shared" si="1"/>
         <v>1994</v>
       </c>
-      <c r="Q16" s="2" t="str">
+      <c r="Q16" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" s="4" customFormat="1" ht="43.7" spans="1:18">
+      <c r="R16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="43.7" spans="1:18">
       <c r="A17" s="35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B17" s="36">
         <v>0.16875</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>111</v>
+        <v>21</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J17" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="35" t="s">
         <v>114</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>111</v>
       </c>
       <c r="L17" s="35">
         <v>1994</v>
@@ -11080,7 +11141,7 @@
         <v>1994</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O17" s="80">
         <v>26332</v>
@@ -11089,45 +11150,48 @@
         <f t="shared" si="1"/>
         <v>1972</v>
       </c>
-      <c r="Q17" s="2" t="str">
+      <c r="Q17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation X</v>
       </c>
-      <c r="R17" s="2"/>
+      <c r="R17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Metallica</v>
+      </c>
     </row>
     <row r="18" ht="58.3" spans="1:18">
       <c r="A18" s="38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B18" s="39">
         <v>0.215277777777778</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J18" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>118</v>
       </c>
       <c r="L18" s="25">
         <v>1999</v>
@@ -11137,7 +11201,7 @@
         <v>1999</v>
       </c>
       <c r="N18" s="25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O18" s="79">
         <v>29098</v>
@@ -11146,45 +11210,48 @@
         <f t="shared" si="1"/>
         <v>1979</v>
       </c>
-      <c r="Q18" s="2" t="str">
+      <c r="Q18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation X</v>
       </c>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" s="4" customFormat="1" ht="26.55" spans="1:18">
+      <c r="R18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Reload</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="26.55" spans="1:18">
       <c r="A19" s="40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B19" s="36">
         <v>0.101388888888889</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J19" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="35" t="s">
         <v>128</v>
-      </c>
-      <c r="K19" s="35" t="s">
-        <v>125</v>
       </c>
       <c r="L19" s="35">
         <v>2018</v>
@@ -11194,7 +11261,7 @@
         <v>2018</v>
       </c>
       <c r="N19" s="35" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O19" s="80">
         <v>36339</v>
@@ -11203,45 +11270,48 @@
         <f t="shared" si="1"/>
         <v>1999</v>
       </c>
-      <c r="Q19" s="2" t="str">
+      <c r="Q19" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation Z</v>
       </c>
-      <c r="R19" s="2"/>
+      <c r="R19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Hardwired... to Self-Destruct</v>
+      </c>
     </row>
     <row r="20" ht="29.15" spans="1:18">
       <c r="A20" s="38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B20" s="39">
         <v>0.127777777777778</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L20" s="25">
         <v>1979</v>
@@ -11251,7 +11321,7 @@
         <v>1979</v>
       </c>
       <c r="N20" s="25" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O20" s="79">
         <v>20350</v>
@@ -11260,45 +11330,48 @@
         <f t="shared" si="1"/>
         <v>1955</v>
       </c>
-      <c r="Q20" s="2" t="str">
+      <c r="Q20" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baby Boomer</v>
       </c>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" s="4" customFormat="1" spans="1:18">
+      <c r="R20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Pre-Metallica</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:18">
       <c r="A21" s="40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B21" s="36">
         <v>0.163888888888889</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L21" s="35">
         <v>2013</v>
@@ -11308,7 +11381,7 @@
         <v>2013</v>
       </c>
       <c r="N21" s="35" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O21" s="80">
         <v>32235</v>
@@ -11317,45 +11390,48 @@
         <f t="shared" si="1"/>
         <v>1988</v>
       </c>
-      <c r="Q21" s="2" t="str">
+      <c r="Q21" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R21" s="2"/>
+      <c r="R21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="22" ht="43.7" spans="1:18">
       <c r="A22" s="38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B22" s="39">
         <v>0.174305555555556</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L22" s="25">
         <v>1994</v>
@@ -11365,7 +11441,7 @@
         <v>1994</v>
       </c>
       <c r="N22" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O22" s="79">
         <v>27006</v>
@@ -11374,45 +11450,48 @@
         <f t="shared" si="1"/>
         <v>1973</v>
       </c>
-      <c r="Q22" s="2" t="str">
+      <c r="Q22" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation X</v>
       </c>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" s="4" customFormat="1" ht="29.15" spans="1:18">
+      <c r="R22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Metallica</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="29.15" spans="1:18">
       <c r="A23" s="40" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B23" s="36">
         <v>0.245833333333333</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L23" s="35">
         <v>2007</v>
@@ -11422,7 +11501,7 @@
         <v>2007</v>
       </c>
       <c r="N23" s="35" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O23" s="80">
         <v>30612</v>
@@ -11431,45 +11510,48 @@
         <f t="shared" si="1"/>
         <v>1983</v>
       </c>
-      <c r="Q23" s="2" t="str">
+      <c r="Q23" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R23" s="2"/>
+      <c r="R23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>St. Anger</v>
+      </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="42" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B24" s="43">
         <v>0.18125</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="25" t="s">
         <v>160</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>157</v>
       </c>
       <c r="L24" s="79">
         <v>36158</v>
@@ -11479,7 +11561,7 @@
         <v>1998</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O24" s="79">
         <v>26843</v>
@@ -11488,11 +11570,14 @@
         <f t="shared" si="1"/>
         <v>1973</v>
       </c>
-      <c r="Q24" s="2" t="str">
+      <c r="Q24" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation X</v>
       </c>
-      <c r="R24" s="2"/>
+      <c r="R24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Reload</v>
+      </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="42"/>
@@ -11502,19 +11587,19 @@
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
       <c r="G25" s="46" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H25" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="I25" s="25" t="s">
-        <v>159</v>
-      </c>
       <c r="J25" s="25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L25" s="25">
         <v>2020</v>
@@ -11524,7 +11609,7 @@
         <v>2020</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O25" s="79">
         <v>33148</v>
@@ -11533,11 +11618,14 @@
         <f t="shared" si="1"/>
         <v>1990</v>
       </c>
-      <c r="Q25" s="2" t="str">
+      <c r="Q25" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R25" s="2"/>
+      <c r="R25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Hardwired... to Self-Destruct</v>
+      </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="42"/>
@@ -11547,19 +11635,19 @@
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="46" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J26" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L26" s="25">
         <v>2000</v>
@@ -11572,45 +11660,48 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="2" t="str">
+      <c r="Q26" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Unknown</v>
       </c>
-      <c r="R26" s="2"/>
+      <c r="R26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Reload</v>
+      </c>
     </row>
     <row r="27" ht="29.15" spans="1:18">
       <c r="A27" s="51" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B27" s="34">
         <v>0.199305555555556</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L27" s="25">
         <v>2017</v>
@@ -11620,7 +11711,7 @@
         <v>2017</v>
       </c>
       <c r="N27" s="25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O27" s="79">
         <v>34905</v>
@@ -11629,45 +11720,47 @@
         <f t="shared" si="1"/>
         <v>1995</v>
       </c>
-      <c r="Q27" s="2" t="str">
+      <c r="Q27" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R27" s="2"/>
+      <c r="R27" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="28" ht="29.15" spans="1:18">
       <c r="A28" s="51" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B28" s="52">
         <v>0.192361111111111</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F28" s="54" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J28" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L28">
         <v>2012</v>
@@ -11677,7 +11770,7 @@
         <v>2012</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O28" s="79">
         <v>32868</v>
@@ -11686,11 +11779,14 @@
         <f t="shared" si="1"/>
         <v>1989</v>
       </c>
-      <c r="Q28" s="2" t="str">
+      <c r="Q28" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R28" s="2"/>
+      <c r="R28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="51"/>
@@ -11700,19 +11796,19 @@
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
       <c r="G29" s="51" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L29" s="79">
         <v>32599</v>
@@ -11722,7 +11818,7 @@
         <v>1989</v>
       </c>
       <c r="N29" s="25" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O29" s="79">
         <v>25010</v>
@@ -11731,45 +11827,48 @@
         <f t="shared" si="1"/>
         <v>1968</v>
       </c>
-      <c r="Q29" s="2" t="str">
+      <c r="Q29" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation X</v>
       </c>
-      <c r="R29" s="2"/>
+      <c r="R29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>...And Justice for All</v>
+      </c>
     </row>
     <row r="30" ht="29.15" spans="1:18">
       <c r="A30" s="51" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B30" s="34">
         <v>0.170833333333333</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L30" s="79">
         <v>37718</v>
@@ -11779,7 +11878,7 @@
         <v>2003</v>
       </c>
       <c r="N30" s="25" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O30" s="25">
         <v>1985</v>
@@ -11788,45 +11887,47 @@
         <f t="shared" si="1"/>
         <v>1985</v>
       </c>
-      <c r="Q30" s="2" t="str">
+      <c r="Q30" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R30" s="2"/>
+      <c r="R30" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="31" ht="29.15" spans="1:18">
       <c r="A31" s="51" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B31" s="39">
         <v>0.167361111111111</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L31" s="25">
         <v>2002</v>
@@ -11836,7 +11937,7 @@
         <v>2002</v>
       </c>
       <c r="N31" s="25" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="O31" s="79">
         <v>29465</v>
@@ -11845,45 +11946,48 @@
         <f t="shared" si="1"/>
         <v>1980</v>
       </c>
-      <c r="Q31" s="2" t="str">
+      <c r="Q31" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation X</v>
       </c>
-      <c r="R31" s="2"/>
+      <c r="R31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Reload</v>
+      </c>
     </row>
     <row r="32" ht="43.7" spans="1:18">
       <c r="A32" s="51" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B32" s="34">
         <v>0.231944444444444</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F32" s="51" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G32" s="51" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L32" s="79">
         <v>41748</v>
@@ -11893,7 +11997,7 @@
         <v>2014</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="O32" s="79">
         <v>33743</v>
@@ -11902,45 +12006,48 @@
         <f t="shared" si="1"/>
         <v>1992</v>
       </c>
-      <c r="Q32" s="2" t="str">
+      <c r="Q32" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R32" s="2"/>
+      <c r="R32" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="33" ht="26.55" spans="1:18">
       <c r="A33" s="38" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B33" s="39">
         <v>0.110416666666667</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K33" s="25" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L33" s="25">
         <v>2009</v>
@@ -11950,7 +12057,7 @@
         <v>2009</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="O33" s="79">
         <v>31174</v>
@@ -11959,45 +12066,48 @@
         <f t="shared" si="1"/>
         <v>1985</v>
       </c>
-      <c r="Q33" s="2" t="str">
+      <c r="Q33" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R33" s="2"/>
+      <c r="R33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="34" ht="29.15" spans="1:18">
       <c r="A34" s="57" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B34" s="58">
         <v>0.129861111111111</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F34" s="60" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G34" s="51" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L34" s="25">
         <v>2002</v>
@@ -12007,7 +12117,7 @@
         <v>2002</v>
       </c>
       <c r="N34" s="25" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="O34" s="79">
         <v>29760</v>
@@ -12016,11 +12126,14 @@
         <f t="shared" si="1"/>
         <v>1981</v>
       </c>
-      <c r="Q34" s="2" t="str">
+      <c r="Q34" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R34" s="2"/>
+      <c r="R34" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Reload</v>
+      </c>
     </row>
     <row r="35" ht="29.15" spans="1:18">
       <c r="A35" s="61"/>
@@ -12030,19 +12143,19 @@
       <c r="E35" s="64"/>
       <c r="F35" s="64"/>
       <c r="G35" s="38" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L35" s="79">
         <v>44148</v>
@@ -12052,7 +12165,7 @@
         <v>2020</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="O35" s="79">
         <v>35671</v>
@@ -12061,45 +12174,48 @@
         <f t="shared" si="1"/>
         <v>1997</v>
       </c>
-      <c r="Q35" s="2" t="str">
+      <c r="Q35" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation Z</v>
       </c>
-      <c r="R35" s="2"/>
+      <c r="R35" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Hardwired... to Self-Destruct</v>
+      </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="38" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B36" s="39">
         <v>0.164583333333333</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L36" s="25">
         <v>1992</v>
@@ -12109,7 +12225,7 @@
         <v>1992</v>
       </c>
       <c r="N36" s="25" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="O36" s="79">
         <v>26759</v>
@@ -12118,45 +12234,48 @@
         <f t="shared" si="1"/>
         <v>1973</v>
       </c>
-      <c r="Q36" s="2" t="str">
+      <c r="Q36" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation X</v>
       </c>
-      <c r="R36" s="2"/>
+      <c r="R36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Metallica</v>
+      </c>
     </row>
     <row r="37" ht="26.55" spans="1:18">
       <c r="A37" s="38" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B37" s="34">
         <v>0.28125</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G37" s="51" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K37" s="25" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L37" s="25">
         <v>2012</v>
@@ -12166,7 +12285,7 @@
         <v>2012</v>
       </c>
       <c r="N37" s="25" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="O37" s="79">
         <v>31187</v>
@@ -12175,45 +12294,48 @@
         <f t="shared" si="1"/>
         <v>1985</v>
       </c>
-      <c r="Q37" s="2" t="str">
+      <c r="Q37" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R37" s="2"/>
+      <c r="R37" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="38" ht="29.15" spans="1:18">
       <c r="A38" s="38" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B38" s="39">
         <v>0.245833333333333</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K38" s="25" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L38" s="25">
         <v>2005</v>
@@ -12223,7 +12345,7 @@
         <v>2005</v>
       </c>
       <c r="N38" s="25" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O38" s="25">
         <v>1981</v>
@@ -12232,45 +12354,48 @@
         <f t="shared" si="1"/>
         <v>1981</v>
       </c>
-      <c r="Q38" s="2" t="str">
+      <c r="Q38" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R38" s="2"/>
+      <c r="R38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>St. Anger</v>
+      </c>
     </row>
     <row r="39" ht="43.7" spans="1:18">
       <c r="A39" s="65" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B39" s="58">
         <v>0.176388888888889</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D39" s="59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F39" s="60" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G39" s="51" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K39" s="25" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L39" s="25">
         <v>2007</v>
@@ -12280,7 +12405,7 @@
         <v>2007</v>
       </c>
       <c r="N39" s="25" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O39" s="79">
         <v>29749</v>
@@ -12289,11 +12414,14 @@
         <f t="shared" si="1"/>
         <v>1981</v>
       </c>
-      <c r="Q39" s="2" t="str">
+      <c r="Q39" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R39" s="2"/>
+      <c r="R39" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>St. Anger</v>
+      </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="66"/>
@@ -12303,19 +12431,19 @@
       <c r="E40" s="64"/>
       <c r="F40" s="64"/>
       <c r="G40" s="38" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L40" s="79">
         <v>35551</v>
@@ -12325,51 +12453,53 @@
         <v>1997</v>
       </c>
       <c r="N40" s="25" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P40" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="2" t="str">
+      <c r="Q40" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Unknown</v>
       </c>
-      <c r="R40" s="2"/>
+      <c r="R40" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="41" ht="43.7" spans="1:18">
       <c r="A41" s="51" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B41" s="39">
         <v>0.152083333333333</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K41" s="25" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L41" s="25">
         <v>2005</v>
@@ -12379,7 +12509,7 @@
         <v>2005</v>
       </c>
       <c r="N41" s="25" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="O41" s="79">
         <v>27485</v>
@@ -12388,45 +12518,48 @@
         <f t="shared" si="1"/>
         <v>1975</v>
       </c>
-      <c r="Q41" s="2" t="str">
+      <c r="Q41" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation X</v>
       </c>
-      <c r="R41" s="2"/>
+      <c r="R41" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>St. Anger</v>
+      </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="51" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B42" s="34">
         <v>0.171527777777778</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G42" s="51" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="K42" s="25" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L42" s="25">
         <v>2019</v>
@@ -12436,7 +12569,7 @@
         <v>2019</v>
       </c>
       <c r="N42" s="25" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="O42" s="79">
         <v>30241</v>
@@ -12445,45 +12578,48 @@
         <f t="shared" si="1"/>
         <v>1982</v>
       </c>
-      <c r="Q42" s="2" t="str">
+      <c r="Q42" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R42" s="2"/>
+      <c r="R42" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Hardwired... to Self-Destruct</v>
+      </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="51" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B43" s="39">
         <v>0.129166666666667</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K43" s="38" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L43" s="79">
         <v>43088</v>
@@ -12493,51 +12629,53 @@
         <v>2017</v>
       </c>
       <c r="N43" s="38" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P43" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="2" t="str">
+      <c r="Q43" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Unknown</v>
       </c>
-      <c r="R43" s="2"/>
+      <c r="R43" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="44" ht="29.15" spans="1:18">
       <c r="A44" s="51" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B44" s="34">
         <v>0.190972222222222</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E44" s="51" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F44" s="51" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G44" s="51" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K44" s="25" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L44" s="25">
         <v>2011</v>
@@ -12547,7 +12685,7 @@
         <v>2011</v>
       </c>
       <c r="N44" s="25" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O44" s="79">
         <v>34563</v>
@@ -12556,45 +12694,48 @@
         <f t="shared" si="1"/>
         <v>1994</v>
       </c>
-      <c r="Q44" s="2" t="str">
+      <c r="Q44" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R44" s="2"/>
+      <c r="R44" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="65" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B45" s="67">
         <v>0.275694444444444</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D45" s="59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E45" s="54" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F45" s="54" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L45" s="25">
         <v>2006</v>
@@ -12604,7 +12745,7 @@
         <v>2006</v>
       </c>
       <c r="N45" s="25" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="O45" s="79">
         <v>33931</v>
@@ -12613,11 +12754,14 @@
         <f t="shared" si="1"/>
         <v>1992</v>
       </c>
-      <c r="Q45" s="2" t="str">
+      <c r="Q45" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R45" s="2"/>
+      <c r="R45" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>St. Anger</v>
+      </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="68"/>
@@ -12627,19 +12771,19 @@
       <c r="E46" s="71"/>
       <c r="F46" s="71"/>
       <c r="G46" s="51" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K46" s="25" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L46" s="25">
         <v>2012</v>
@@ -12649,7 +12793,7 @@
         <v>2012</v>
       </c>
       <c r="N46" s="25" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="O46" s="79">
         <v>33166</v>
@@ -12658,11 +12802,14 @@
         <f t="shared" si="1"/>
         <v>1990</v>
       </c>
-      <c r="Q46" s="2" t="str">
+      <c r="Q46" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R46" s="2"/>
+      <c r="R46" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="47" ht="29.15" spans="1:18">
       <c r="A47" s="68"/>
@@ -12672,19 +12819,19 @@
       <c r="E47" s="71"/>
       <c r="F47" s="71"/>
       <c r="G47" s="51" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K47" s="25" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L47" s="25">
         <v>1969</v>
@@ -12694,7 +12841,7 @@
         <v>1969</v>
       </c>
       <c r="N47" s="25" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="O47" s="79">
         <v>17251</v>
@@ -12703,11 +12850,14 @@
         <f t="shared" si="1"/>
         <v>1947</v>
       </c>
-      <c r="Q47" s="2" t="str">
+      <c r="Q47" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baby Boomer</v>
       </c>
-      <c r="R47" s="2"/>
+      <c r="R47" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Pre-Metallica</v>
+      </c>
     </row>
     <row r="48" ht="58.3" spans="1:18">
       <c r="A48" s="68"/>
@@ -12717,19 +12867,19 @@
       <c r="E48" s="71"/>
       <c r="F48" s="71"/>
       <c r="G48" s="51" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K48" s="25" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L48" s="25">
         <v>1978</v>
@@ -12739,7 +12889,7 @@
         <v>1978</v>
       </c>
       <c r="N48" s="25" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="O48" s="79">
         <v>20369</v>
@@ -12748,11 +12898,14 @@
         <f t="shared" si="1"/>
         <v>1955</v>
       </c>
-      <c r="Q48" s="2" t="str">
+      <c r="Q48" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baby Boomer</v>
       </c>
-      <c r="R48" s="2"/>
+      <c r="R48" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Pre-Metallica</v>
+      </c>
     </row>
     <row r="49" ht="29.15" spans="1:18">
       <c r="A49" s="68"/>
@@ -12762,19 +12915,19 @@
       <c r="E49" s="71"/>
       <c r="F49" s="71"/>
       <c r="G49" s="51" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K49" s="25" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L49" s="25">
         <v>1990</v>
@@ -12784,7 +12937,7 @@
         <v>1990</v>
       </c>
       <c r="N49" s="25" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="O49" s="79">
         <v>23673</v>
@@ -12793,11 +12946,14 @@
         <f t="shared" si="1"/>
         <v>1964</v>
       </c>
-      <c r="Q49" s="2" t="str">
+      <c r="Q49" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baby Boomer</v>
       </c>
-      <c r="R49" s="2"/>
+      <c r="R49" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>...And Justice for All</v>
+      </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="66"/>
@@ -12807,19 +12963,19 @@
       <c r="E50" s="56"/>
       <c r="F50" s="56"/>
       <c r="G50" s="51" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K50" s="25" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L50" s="25">
         <v>1982</v>
@@ -12829,7 +12985,7 @@
         <v>1982</v>
       </c>
       <c r="N50" s="25" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="O50" s="79">
         <v>22579</v>
@@ -12838,45 +12994,48 @@
         <f t="shared" si="1"/>
         <v>1961</v>
       </c>
-      <c r="Q50" s="2" t="str">
+      <c r="Q50" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baby Boomer</v>
       </c>
-      <c r="R50" s="2"/>
+      <c r="R50" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Pre-Metallica</v>
+      </c>
     </row>
     <row r="51" ht="29.15" spans="1:18">
       <c r="A51" s="51" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B51" s="34">
         <v>0.214583333333333</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E51" s="51" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F51" s="51" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G51" s="51" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K51" s="25" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L51" s="25">
         <v>1981</v>
@@ -12886,7 +13045,7 @@
         <v>1981</v>
       </c>
       <c r="N51" s="25" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O51" s="79">
         <v>22775</v>
@@ -12895,45 +13054,48 @@
         <f t="shared" si="1"/>
         <v>1962</v>
       </c>
-      <c r="Q51" s="2" t="str">
+      <c r="Q51" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baby Boomer</v>
       </c>
-      <c r="R51" s="2"/>
+      <c r="R51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Pre-Metallica</v>
+      </c>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="51" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B52" s="39">
         <v>0.188194444444444</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K52" s="25" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L52" s="25">
         <v>2014</v>
@@ -12943,7 +13105,7 @@
         <v>2014</v>
       </c>
       <c r="N52" s="25" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="O52" s="79">
         <v>30484</v>
@@ -12952,45 +13114,48 @@
         <f t="shared" si="1"/>
         <v>1983</v>
       </c>
-      <c r="Q52" s="2" t="str">
+      <c r="Q52" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R52" s="2"/>
+      <c r="R52" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="51" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B53" s="34">
         <v>0.125694444444444</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E53" s="51" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F53" s="51" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G53" s="51" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="K53" s="25" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="L53" s="25">
         <v>2018</v>
@@ -13000,7 +13165,7 @@
         <v>2018</v>
       </c>
       <c r="N53" s="25" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="O53" s="79">
         <v>33585</v>
@@ -13009,45 +13174,48 @@
         <f t="shared" si="1"/>
         <v>1991</v>
       </c>
-      <c r="Q53" s="2" t="str">
+      <c r="Q53" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R53" s="2"/>
+      <c r="R53" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Hardwired... to Self-Destruct</v>
+      </c>
     </row>
     <row r="54" ht="43.7" spans="1:18">
       <c r="A54" s="51" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B54" s="39">
         <v>0.247222222222222</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E54" s="73" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F54" s="73" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G54" s="41" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="J54" s="25" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K54" s="25" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L54" s="25">
         <v>2004</v>
@@ -13057,7 +13225,7 @@
         <v>2004</v>
       </c>
       <c r="N54" s="25" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="O54" s="79">
         <v>30438</v>
@@ -13066,45 +13234,48 @@
         <f t="shared" si="1"/>
         <v>1983</v>
       </c>
-      <c r="Q54" s="2" t="str">
+      <c r="Q54" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R54" s="2"/>
+      <c r="R54" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>St. Anger</v>
+      </c>
     </row>
     <row r="55" ht="58.3" spans="1:18">
       <c r="A55" s="51" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B55" s="39">
         <v>0.216666666666667</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F55" s="38" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="J55" s="25" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K55" s="25" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="L55" s="25">
         <v>2007</v>
@@ -13114,7 +13285,7 @@
         <v>2007</v>
       </c>
       <c r="N55" s="25" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="O55" s="79">
         <v>31846</v>
@@ -13123,45 +13294,48 @@
         <f t="shared" si="1"/>
         <v>1987</v>
       </c>
-      <c r="Q55" s="2" t="str">
+      <c r="Q55" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R55" s="2"/>
+      <c r="R55" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>St. Anger</v>
+      </c>
     </row>
     <row r="56" ht="43.7" spans="1:18">
       <c r="A56" s="51" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B56" s="34">
         <v>0.143055555555556</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E56" s="51" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F56" s="51" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G56" s="51" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K56" s="25" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L56" s="25">
         <v>2001</v>
@@ -13171,7 +13345,7 @@
         <v>2001</v>
       </c>
       <c r="N56" s="25" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="O56" s="79">
         <v>28607</v>
@@ -13180,45 +13354,48 @@
         <f t="shared" si="1"/>
         <v>1978</v>
       </c>
-      <c r="Q56" s="2" t="str">
+      <c r="Q56" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation X</v>
       </c>
-      <c r="R56" s="2"/>
+      <c r="R56" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Reload</v>
+      </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="51" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B57" s="39">
         <v>0.159027777777778</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J57" s="25" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K57" s="25" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="L57" s="25">
         <v>1976</v>
@@ -13228,7 +13405,7 @@
         <v>1976</v>
       </c>
       <c r="N57" s="25" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="O57" s="79">
         <v>21562</v>
@@ -13237,45 +13414,48 @@
         <f t="shared" si="1"/>
         <v>1959</v>
       </c>
-      <c r="Q57" s="2" t="str">
+      <c r="Q57" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baby Boomer</v>
       </c>
-      <c r="R57" s="2"/>
+      <c r="R57" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Pre-Metallica</v>
+      </c>
     </row>
     <row r="58" ht="29.15" spans="1:18">
       <c r="A58" s="60" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B58" s="74">
         <v>0.286805555555556</v>
       </c>
       <c r="C58" s="75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E58" s="60" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F58" s="60" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G58" s="51" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K58" s="25" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L58" s="25">
         <v>1990</v>
@@ -13285,7 +13465,7 @@
         <v>1990</v>
       </c>
       <c r="N58" s="25" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="O58" s="79">
         <v>24240</v>
@@ -13294,11 +13474,14 @@
         <f t="shared" si="1"/>
         <v>1966</v>
       </c>
-      <c r="Q58" s="2" t="str">
+      <c r="Q58" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation X</v>
       </c>
-      <c r="R58" s="2"/>
+      <c r="R58" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>...And Justice for All</v>
+      </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="64"/>
@@ -13308,19 +13491,19 @@
       <c r="E59" s="64"/>
       <c r="F59" s="64"/>
       <c r="G59" s="38" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J59" s="25" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K59" s="25" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L59" s="25">
         <v>2015</v>
@@ -13330,7 +13513,7 @@
         <v>2015</v>
       </c>
       <c r="N59" s="25" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="O59" s="25">
         <v>1991</v>
@@ -13339,45 +13522,48 @@
         <f t="shared" si="1"/>
         <v>1991</v>
       </c>
-      <c r="Q59" s="2" t="str">
+      <c r="Q59" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R59" s="2"/>
+      <c r="R59" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="60" ht="29.15" spans="1:18">
       <c r="A60" s="51" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B60" s="39">
         <v>0.34375</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G60" s="38" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J60" s="25" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="K60" s="25" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L60" s="25">
         <v>2007</v>
@@ -13387,7 +13573,7 @@
         <v>2007</v>
       </c>
       <c r="N60" s="25" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="O60" s="79">
         <v>28595</v>
@@ -13396,45 +13582,48 @@
         <f t="shared" si="1"/>
         <v>1978</v>
       </c>
-      <c r="Q60" s="2" t="str">
+      <c r="Q60" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation X</v>
       </c>
-      <c r="R60" s="2"/>
+      <c r="R60" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>St. Anger</v>
+      </c>
     </row>
     <row r="61" ht="29.15" spans="1:18">
       <c r="A61" s="51" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B61" s="34">
         <v>0.266666666666667</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E61" s="51" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G61" s="51" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="J61" s="25" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K61" s="25" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L61" s="25">
         <v>2013</v>
@@ -13444,7 +13633,7 @@
         <v>2013</v>
       </c>
       <c r="N61" s="25" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="O61" s="79">
         <v>31891</v>
@@ -13453,45 +13642,48 @@
         <f t="shared" si="1"/>
         <v>1987</v>
       </c>
-      <c r="Q61" s="2" t="str">
+      <c r="Q61" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R61" s="2"/>
+      <c r="R61" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="62" ht="26.55" spans="1:18">
       <c r="A62" s="38" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B62" s="39">
         <v>0.141666666666667</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G62" s="38" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="I62" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J62" s="25" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="K62" s="25" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="L62" s="25">
         <v>2007</v>
@@ -13501,7 +13693,7 @@
         <v>2007</v>
       </c>
       <c r="N62" s="25" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="O62" s="79">
         <v>30888</v>
@@ -13510,45 +13702,48 @@
         <f t="shared" si="1"/>
         <v>1984</v>
       </c>
-      <c r="Q62" s="2" t="str">
+      <c r="Q62" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R62" s="2"/>
+      <c r="R62" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>St. Anger</v>
+      </c>
     </row>
     <row r="63" ht="29.15" spans="1:18">
       <c r="A63" s="51" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B63" s="34">
         <v>0.163888888888889</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E63" s="51" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F63" s="51" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G63" s="51" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J63" s="25" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="K63" s="25" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L63" s="25">
         <v>2011</v>
@@ -13558,7 +13753,7 @@
         <v>2011</v>
       </c>
       <c r="N63" s="25" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="O63" s="79">
         <v>30917</v>
@@ -13567,45 +13762,48 @@
         <f t="shared" si="1"/>
         <v>1984</v>
       </c>
-      <c r="Q63" s="2" t="str">
+      <c r="Q63" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R63" s="2"/>
+      <c r="R63" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="51" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B64" s="39">
         <v>0.169444444444444</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F64" s="51" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="J64" s="25" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K64" s="25" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L64" s="25">
         <v>2005</v>
@@ -13615,7 +13813,7 @@
         <v>2005</v>
       </c>
       <c r="N64" s="25" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="O64" s="79">
         <v>27220</v>
@@ -13624,45 +13822,48 @@
         <f t="shared" si="1"/>
         <v>1974</v>
       </c>
-      <c r="Q64" s="2" t="str">
+      <c r="Q64" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Generation X</v>
       </c>
-      <c r="R64" s="2"/>
+      <c r="R64" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>St. Anger</v>
+      </c>
     </row>
     <row r="65" ht="29.15" spans="1:18">
       <c r="A65" s="51" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B65" s="34">
         <v>0.146527777777778</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E65" s="51" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F65" s="51" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G65" s="51" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J65" s="25" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="K65" s="25" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L65" s="25">
         <v>2013</v>
@@ -13672,7 +13873,7 @@
         <v>2013</v>
       </c>
       <c r="N65" s="25" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="O65" s="79">
         <v>35410</v>
@@ -13681,182 +13882,194 @@
         <f t="shared" si="1"/>
         <v>1996</v>
       </c>
-      <c r="Q65" s="2" t="str">
+      <c r="Q65" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Millennial</v>
       </c>
-      <c r="R65" s="2"/>
+      <c r="R65" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="51" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B66" s="39">
         <v>0.184027777777778</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F66" s="38" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G66" s="38" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="J66" s="25" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K66" s="25" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L66" s="25">
         <v>2009</v>
       </c>
       <c r="M66" s="27">
-        <f t="shared" ref="M66:M68" si="3">IF(L66&lt;2021,L66,YEAR(L66))</f>
+        <f t="shared" ref="M66:M68" si="4">IF(L66&lt;2021,L66,YEAR(L66))</f>
         <v>2009</v>
       </c>
       <c r="N66" s="25" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="O66" s="79">
         <v>33140</v>
       </c>
       <c r="P66" s="27">
-        <f t="shared" ref="P66:P68" si="4">IF(O66&lt;2021,O66,YEAR(O66))</f>
+        <f t="shared" ref="P66:P68" si="5">IF(O66&lt;2021,O66,YEAR(O66))</f>
         <v>1990</v>
       </c>
-      <c r="Q66" s="2" t="str">
-        <f t="shared" ref="Q66:Q68" si="5">IF(P66&gt;=1997,"Generation Z",IF(P66&gt;=1981,"Millennial",IF(P66&gt;=1965,"Generation X",IF(P66&gt;=1946,"Baby Boomer","Unknown"))))</f>
+      <c r="Q66" s="1" t="str">
+        <f t="shared" ref="Q66:Q68" si="6">IF(P66&gt;=1997,"Generation Z",IF(P66&gt;=1981,"Millennial",IF(P66&gt;=1965,"Generation X",IF(P66&gt;=1946,"Baby Boomer","Unknown"))))</f>
         <v>Millennial</v>
       </c>
-      <c r="R66" s="2"/>
+      <c r="R66" s="1" t="str">
+        <f t="shared" ref="R66:R68" si="7">IF(M66&gt;2017,"Hardwired... to Self-Destruct",IF(AND(M66&gt;2008,M66&lt;2016),"Death Magnetic",IF(AND(M66&gt;2003,M66&lt;2008),"St. Anger",IF(AND(M66&gt;1997,M66&lt;2003),"Reload",IF(AND(M66&gt;1991,M66&lt;1996),"Metallica",IF(AND(M66&gt;1988,M66&lt;1991),"...And Justice for All",IF(M66=1987,"Master of Puppets",IF(M66=1985,"Ride the Lightning",IF(M66&lt;1983,"Pre-Metallica","")))))))))</f>
+        <v>Death Magnetic</v>
+      </c>
     </row>
     <row r="67" ht="29.15" spans="1:18">
       <c r="A67" s="51" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B67" s="34">
         <v>0.282638888888889</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E67" s="51" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="F67" s="51" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G67" s="51" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J67" s="25" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="K67" s="25" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="L67" s="25">
         <v>1999</v>
       </c>
       <c r="M67" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1999</v>
       </c>
       <c r="N67" s="25" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="O67" s="79">
         <v>29635</v>
       </c>
       <c r="P67" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1981</v>
       </c>
-      <c r="Q67" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="Q67" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>Millennial</v>
       </c>
-      <c r="R67" s="2"/>
+      <c r="R67" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Reload</v>
+      </c>
     </row>
     <row r="68" ht="29.15" spans="1:18">
       <c r="A68" s="38" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B68" s="39">
         <v>0.166666666666667</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E68" s="38" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G68" s="38" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J68" s="25" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K68" s="25" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L68" s="25">
         <v>1999</v>
       </c>
       <c r="M68" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1999</v>
       </c>
       <c r="N68" s="25" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="O68" s="25">
         <v>1973</v>
       </c>
       <c r="P68" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1973</v>
       </c>
-      <c r="Q68" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="Q68" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>Generation X</v>
       </c>
-      <c r="R68" s="2"/>
+      <c r="R68" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Reload</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -13916,6 +14129,115 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="25.3153153153153" customWidth="1"/>
+    <col min="2" max="2" width="23.2342342342342" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="23">
+        <v>30522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" s="23">
+        <v>30890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" s="23">
+        <v>31474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" s="23">
+        <v>32393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" s="23">
+        <v>33462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="23">
+        <v>35220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="23">
+        <v>35752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="23">
+        <v>37777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B9" s="23">
+        <v>39703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="23">
+        <v>42692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B11" s="23">
+        <v>45030</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A12:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13929,19 +14251,19 @@
   </cols>
   <sheetData>
     <row r="12" spans="1:1">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13949,7 +14271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C41"/>
@@ -14155,100 +14477,100 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="18"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="18"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="20"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="18"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="20"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="20"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="20"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="20"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="18"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="18"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="18"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="20"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="18"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="18"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="18"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="20"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="18"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="18"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="18"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="20"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -14269,12 +14591,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -14294,46 +14616,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>401</v>
+      <c r="B1" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="F1" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="G1" t="str" cm="1">
         <f t="array" ref="G1:G15">_xlfn.UNIQUE(A:A)</f>
         <v>Song</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>405</v>
+      <c r="H1" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="16">
+        <v>19</v>
+      </c>
+      <c r="B2" s="15">
         <v>0.183333333333333</v>
       </c>
       <c r="C2">
@@ -14374,9 +14696,9 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="16">
+        <v>19</v>
+      </c>
+      <c r="B3" s="15">
         <v>0.240277777777778</v>
       </c>
       <c r="C3">
@@ -14417,9 +14739,9 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="16">
+        <v>19</v>
+      </c>
+      <c r="B4" s="15">
         <v>0.160416666666667</v>
       </c>
       <c r="C4">
@@ -14460,9 +14782,9 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="16">
+        <v>19</v>
+      </c>
+      <c r="B5" s="15">
         <v>0.203472222222222</v>
       </c>
       <c r="C5">
@@ -14503,9 +14825,9 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="16">
+        <v>19</v>
+      </c>
+      <c r="B6" s="15">
         <v>0.231944444444444</v>
       </c>
       <c r="C6">
@@ -14546,9 +14868,9 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="16">
+        <v>19</v>
+      </c>
+      <c r="B7" s="15">
         <v>0.231944444444444</v>
       </c>
       <c r="C7">
@@ -14563,18 +14885,18 @@
         <f t="shared" si="2"/>
         <v>334</v>
       </c>
-      <c r="G7" s="17" t="str">
+      <c r="G7" s="16" t="str">
         <v>Don't Tread on Else Matters</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="16">
+        <v>66</v>
+      </c>
+      <c r="B8" s="15">
         <v>0.160416666666667</v>
       </c>
       <c r="C8">
@@ -14615,9 +14937,9 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="16">
+        <v>66</v>
+      </c>
+      <c r="B9" s="15">
         <v>0.1875</v>
       </c>
       <c r="C9">
@@ -14658,9 +14980,9 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="16">
+        <v>66</v>
+      </c>
+      <c r="B10" s="15">
         <v>0.188194444444444</v>
       </c>
       <c r="C10">
@@ -14701,9 +15023,9 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="16">
+        <v>66</v>
+      </c>
+      <c r="B11" s="15">
         <v>0.228472222222222</v>
       </c>
       <c r="C11">
@@ -14744,9 +15066,9 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="16">
+        <v>66</v>
+      </c>
+      <c r="B12" s="15">
         <v>0.175</v>
       </c>
       <c r="C12">
@@ -14787,9 +15109,9 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="16">
+        <v>66</v>
+      </c>
+      <c r="B13" s="15">
         <v>0.224305555555556</v>
       </c>
       <c r="C13">
@@ -14830,9 +15152,9 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="16">
+        <v>66</v>
+      </c>
+      <c r="B14" s="15">
         <v>0.16875</v>
       </c>
       <c r="C14">
@@ -14873,9 +15195,9 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="16">
+        <v>119</v>
+      </c>
+      <c r="B15" s="15">
         <v>0.215277777777778</v>
       </c>
       <c r="C15">
@@ -14896,9 +15218,9 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="16">
+        <v>119</v>
+      </c>
+      <c r="B16" s="15">
         <v>0.101388888888889</v>
       </c>
       <c r="C16">
@@ -14916,9 +15238,9 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="16">
+        <v>119</v>
+      </c>
+      <c r="B17" s="15">
         <v>0.127777777777778</v>
       </c>
       <c r="C17">
@@ -14936,9 +15258,9 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="16">
+        <v>119</v>
+      </c>
+      <c r="B18" s="15">
         <v>0.163888888888889</v>
       </c>
       <c r="C18">
@@ -14956,9 +15278,9 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="16">
+        <v>119</v>
+      </c>
+      <c r="B19" s="15">
         <v>0.174305555555556</v>
       </c>
       <c r="C19">
@@ -14976,9 +15298,9 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="16">
+        <v>150</v>
+      </c>
+      <c r="B20" s="15">
         <v>0.245833333333333</v>
       </c>
       <c r="C20">
@@ -14993,30 +15315,30 @@
         <f t="shared" si="2"/>
         <v>354</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>402</v>
+      <c r="G20" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="16">
+        <v>150</v>
+      </c>
+      <c r="B21" s="15">
         <v>0.18125</v>
       </c>
       <c r="C21">
@@ -15032,9 +15354,9 @@
         <v>261</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="16">
+        <v>19</v>
+      </c>
+      <c r="H21" s="15">
         <v>0.229861111111111</v>
       </c>
       <c r="I21">
@@ -15056,9 +15378,9 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="16">
+        <v>150</v>
+      </c>
+      <c r="B22" s="15">
         <v>0.199305555555556</v>
       </c>
       <c r="C22">
@@ -15074,9 +15396,9 @@
         <v>287</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="16">
+        <v>66</v>
+      </c>
+      <c r="H22" s="15">
         <v>0.225</v>
       </c>
       <c r="I22">
@@ -15098,9 +15420,9 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="16">
+        <v>150</v>
+      </c>
+      <c r="B23" s="15">
         <v>0.192361111111111</v>
       </c>
       <c r="C23">
@@ -15116,9 +15438,9 @@
         <v>277</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="16">
+        <v>119</v>
+      </c>
+      <c r="H23" s="15">
         <v>0.157638888888889</v>
       </c>
       <c r="I23">
@@ -15140,9 +15462,9 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="16">
+        <v>150</v>
+      </c>
+      <c r="B24" s="15">
         <v>0.170833333333333</v>
       </c>
       <c r="C24">
@@ -15158,9 +15480,9 @@
         <v>246</v>
       </c>
       <c r="G24" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="16">
+        <v>150</v>
+      </c>
+      <c r="H24" s="15">
         <v>0.26875</v>
       </c>
       <c r="I24">
@@ -15182,9 +15504,9 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="16">
+        <v>150</v>
+      </c>
+      <c r="B25" s="15">
         <v>0.167361111111111</v>
       </c>
       <c r="C25">
@@ -15200,9 +15522,9 @@
         <v>241</v>
       </c>
       <c r="G25" t="s">
-        <v>201</v>
-      </c>
-      <c r="H25" s="16">
+        <v>206</v>
+      </c>
+      <c r="H25" s="15">
         <v>0.280555555555556</v>
       </c>
       <c r="I25">
@@ -15224,9 +15546,9 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="16">
+        <v>150</v>
+      </c>
+      <c r="B26" s="15">
         <v>0.231944444444444</v>
       </c>
       <c r="C26">
@@ -15242,9 +15564,9 @@
         <v>334</v>
       </c>
       <c r="G26" t="s">
-        <v>407</v>
-      </c>
-      <c r="H26" s="16">
+        <v>420</v>
+      </c>
+      <c r="H26" s="15">
         <v>0.166666666666667</v>
       </c>
       <c r="I26">
@@ -15266,9 +15588,9 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>201</v>
-      </c>
-      <c r="B27" s="16">
+        <v>206</v>
+      </c>
+      <c r="B27" s="15">
         <v>0.110416666666667</v>
       </c>
       <c r="C27">
@@ -15284,9 +15606,9 @@
         <v>159</v>
       </c>
       <c r="G27" t="s">
-        <v>253</v>
-      </c>
-      <c r="H27" s="16">
+        <v>259</v>
+      </c>
+      <c r="H27" s="15">
         <v>0.169444444444444</v>
       </c>
       <c r="I27">
@@ -15308,9 +15630,9 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>201</v>
-      </c>
-      <c r="B28" s="16">
+        <v>206</v>
+      </c>
+      <c r="B28" s="15">
         <v>0.129861111111111</v>
       </c>
       <c r="C28">
@@ -15326,9 +15648,9 @@
         <v>187</v>
       </c>
       <c r="G28" t="s">
-        <v>267</v>
-      </c>
-      <c r="H28" s="16">
+        <v>273</v>
+      </c>
+      <c r="H28" s="15">
         <v>0.269444444444444</v>
       </c>
       <c r="I28">
@@ -15350,9 +15672,9 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B29" s="16">
+        <v>206</v>
+      </c>
+      <c r="B29" s="15">
         <v>0.164583333333333</v>
       </c>
       <c r="C29">
@@ -15368,9 +15690,9 @@
         <v>237</v>
       </c>
       <c r="G29" t="s">
-        <v>360</v>
-      </c>
-      <c r="H29" s="16">
+        <v>366</v>
+      </c>
+      <c r="H29" s="15">
         <v>0.177777777777778</v>
       </c>
       <c r="I29">
@@ -15392,9 +15714,9 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B30" s="16">
+        <v>206</v>
+      </c>
+      <c r="B30" s="15">
         <v>0.28125</v>
       </c>
       <c r="C30">
@@ -15410,9 +15732,9 @@
         <v>405</v>
       </c>
       <c r="G30" t="s">
-        <v>408</v>
-      </c>
-      <c r="H30" s="16">
+        <v>421</v>
+      </c>
+      <c r="H30" s="15">
         <v>0.213888888888889</v>
       </c>
       <c r="I30">
@@ -15434,9 +15756,9 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" s="16">
+        <v>234</v>
+      </c>
+      <c r="B31" s="15">
         <v>0.245833333333333</v>
       </c>
       <c r="C31">
@@ -15452,9 +15774,9 @@
         <v>354</v>
       </c>
       <c r="G31" t="s">
-        <v>377</v>
-      </c>
-      <c r="H31" s="16">
+        <v>383</v>
+      </c>
+      <c r="H31" s="15">
         <v>0.284027777777778</v>
       </c>
       <c r="I31">
@@ -15476,9 +15798,9 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>236</v>
-      </c>
-      <c r="B32" s="16">
+        <v>241</v>
+      </c>
+      <c r="B32" s="15">
         <v>0.176388888888889</v>
       </c>
       <c r="C32">
@@ -15494,9 +15816,9 @@
         <v>254</v>
       </c>
       <c r="G32" t="s">
-        <v>391</v>
-      </c>
-      <c r="H32" s="16">
+        <v>397</v>
+      </c>
+      <c r="H32" s="15">
         <v>0.161805555555556</v>
       </c>
       <c r="I32">
@@ -15518,9 +15840,9 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>236</v>
-      </c>
-      <c r="B33" s="16">
+        <v>241</v>
+      </c>
+      <c r="B33" s="15">
         <v>0.152083333333333</v>
       </c>
       <c r="C33">
@@ -15538,9 +15860,9 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>253</v>
-      </c>
-      <c r="B34" s="16">
+        <v>259</v>
+      </c>
+      <c r="B34" s="15">
         <v>0.171527777777778</v>
       </c>
       <c r="C34">
@@ -15558,9 +15880,9 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>253</v>
-      </c>
-      <c r="B35" s="16">
+        <v>259</v>
+      </c>
+      <c r="B35" s="15">
         <v>0.129166666666667</v>
       </c>
       <c r="C35">
@@ -15578,9 +15900,9 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>267</v>
-      </c>
-      <c r="B36" s="16">
+        <v>273</v>
+      </c>
+      <c r="B36" s="15">
         <v>0.190972222222222</v>
       </c>
       <c r="C36">
@@ -15598,9 +15920,9 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>267</v>
-      </c>
-      <c r="B37" s="16">
+        <v>273</v>
+      </c>
+      <c r="B37" s="15">
         <v>0.275694444444444</v>
       </c>
       <c r="C37">
@@ -15618,9 +15940,9 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>267</v>
-      </c>
-      <c r="B38" s="16">
+        <v>273</v>
+      </c>
+      <c r="B38" s="15">
         <v>0.214583333333333</v>
       </c>
       <c r="C38">
@@ -15638,9 +15960,9 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>267</v>
-      </c>
-      <c r="B39" s="16">
+        <v>273</v>
+      </c>
+      <c r="B39" s="15">
         <v>0.188194444444444</v>
       </c>
       <c r="C39">
@@ -15658,9 +15980,9 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>267</v>
-      </c>
-      <c r="B40" s="16">
+        <v>273</v>
+      </c>
+      <c r="B40" s="15">
         <v>0.125694444444444</v>
       </c>
       <c r="C40">
@@ -15678,9 +16000,9 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B41" s="16">
+        <v>273</v>
+      </c>
+      <c r="B41" s="15">
         <v>0.247222222222222</v>
       </c>
       <c r="C41">
@@ -15698,9 +16020,9 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>267</v>
-      </c>
-      <c r="B42" s="16">
+        <v>273</v>
+      </c>
+      <c r="B42" s="15">
         <v>0.216666666666667</v>
       </c>
       <c r="C42">
@@ -15718,9 +16040,9 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>267</v>
-      </c>
-      <c r="B43" s="16">
+        <v>273</v>
+      </c>
+      <c r="B43" s="15">
         <v>0.143055555555556</v>
       </c>
       <c r="C43">
@@ -15738,9 +16060,9 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>267</v>
-      </c>
-      <c r="B44" s="16">
+        <v>273</v>
+      </c>
+      <c r="B44" s="15">
         <v>0.159027777777778</v>
       </c>
       <c r="C44">
@@ -15758,9 +16080,9 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>267</v>
-      </c>
-      <c r="B45" s="16">
+        <v>273</v>
+      </c>
+      <c r="B45" s="15">
         <v>0.286805555555556</v>
       </c>
       <c r="C45">
@@ -15778,9 +16100,9 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>267</v>
-      </c>
-      <c r="B46" s="16">
+        <v>273</v>
+      </c>
+      <c r="B46" s="15">
         <v>0.34375</v>
       </c>
       <c r="C46">
@@ -15798,9 +16120,9 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>267</v>
-      </c>
-      <c r="B47" s="16">
+        <v>273</v>
+      </c>
+      <c r="B47" s="15">
         <v>0.266666666666667</v>
       </c>
       <c r="C47">
@@ -15818,9 +16140,9 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>360</v>
-      </c>
-      <c r="B48" s="16">
+        <v>366</v>
+      </c>
+      <c r="B48" s="15">
         <v>0.141666666666667</v>
       </c>
       <c r="C48">
@@ -15838,9 +16160,9 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>367</v>
-      </c>
-      <c r="B49" s="16">
+        <v>373</v>
+      </c>
+      <c r="B49" s="15">
         <v>0.163888888888889</v>
       </c>
       <c r="C49">
@@ -15858,9 +16180,9 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>367</v>
-      </c>
-      <c r="B50" s="16">
+        <v>373</v>
+      </c>
+      <c r="B50" s="15">
         <v>0.169444444444444</v>
       </c>
       <c r="C50">
@@ -15878,9 +16200,9 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>377</v>
-      </c>
-      <c r="B51" s="16">
+        <v>383</v>
+      </c>
+      <c r="B51" s="15">
         <v>0.146527777777778</v>
       </c>
       <c r="C51">
@@ -15898,9 +16220,9 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>377</v>
-      </c>
-      <c r="B52" s="16">
+        <v>383</v>
+      </c>
+      <c r="B52" s="15">
         <v>0.184027777777778</v>
       </c>
       <c r="C52">
@@ -15918,9 +16240,9 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>377</v>
-      </c>
-      <c r="B53" s="16">
+        <v>383</v>
+      </c>
+      <c r="B53" s="15">
         <v>0.282638888888889</v>
       </c>
       <c r="C53">
@@ -15935,21 +16257,21 @@
         <f t="shared" si="2"/>
         <v>407</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H53" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>410</v>
+      <c r="H53" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>391</v>
-      </c>
-      <c r="B54" s="16">
+        <v>397</v>
+      </c>
+      <c r="B54" s="15">
         <v>0.166666666666667</v>
       </c>
       <c r="C54">
@@ -15965,7 +16287,7 @@
         <v>240</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54">
         <v>0.0882431351639563</v>
@@ -15976,7 +16298,7 @@
     </row>
     <row r="55" spans="7:9">
       <c r="G55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H55">
         <v>0.086376966142362</v>
@@ -15987,7 +16309,7 @@
     </row>
     <row r="56" spans="7:9">
       <c r="G56" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H56">
         <v>0.0605171954145561</v>
@@ -15998,7 +16320,7 @@
     </row>
     <row r="57" spans="7:9">
       <c r="G57" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H57">
         <v>0.10317248733671</v>
@@ -16009,7 +16331,7 @@
     </row>
     <row r="58" spans="7:9">
       <c r="G58" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H58">
         <v>0.107704612103439</v>
@@ -16020,7 +16342,7 @@
     </row>
     <row r="59" spans="7:9">
       <c r="G59" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="H59">
         <v>0.0639829378832311</v>
@@ -16031,7 +16353,7 @@
     </row>
     <row r="60" spans="7:9">
       <c r="G60" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H60">
         <v>0.065049320181285</v>
@@ -16042,7 +16364,7 @@
     </row>
     <row r="61" spans="7:9">
       <c r="G61" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H61">
         <v>0.103439082911224</v>
@@ -16053,7 +16375,7 @@
     </row>
     <row r="62" spans="7:9">
       <c r="G62" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H62">
         <v>0.0682484670754465</v>
@@ -16064,7 +16386,7 @@
     </row>
     <row r="63" spans="7:9">
       <c r="G63" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="H63">
         <v>0.0821114369501466</v>
@@ -16075,7 +16397,7 @@
     </row>
     <row r="64" spans="7:9">
       <c r="G64" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H64">
         <v>0.109037589976006</v>
@@ -16086,7 +16408,7 @@
     </row>
     <row r="65" spans="7:9">
       <c r="G65" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="H65">
         <v>0.0621167688616369</v>
@@ -16102,7 +16424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H42"/>
@@ -16265,8 +16587,8 @@
         <f>COUNTIF(Sheet1!D8:D74,A8)</f>
         <v>2</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>411</v>
+      <c r="D8" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="G8" t="str">
         <v>England</v>
@@ -16278,7 +16600,7 @@
     </row>
     <row r="9" spans="4:8">
       <c r="D9" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="E9">
         <f>E3+E4</f>
@@ -16293,11 +16615,11 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="5" t="s">
-        <v>413</v>
+      <c r="A10" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="D10" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="E10">
         <f>E1+E4</f>
@@ -16313,14 +16635,14 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <f>B2+B4+B5</f>
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -16335,7 +16657,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B12">
         <f>B4+B6</f>
@@ -16351,7 +16673,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -16366,7 +16688,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -16443,13 +16765,13 @@
       </c>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="5" t="s">
-        <v>416</v>
+      <c r="G23" s="4" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H24">
         <f>H2</f>
@@ -16458,7 +16780,7 @@
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <f>H3+H19</f>
@@ -16467,7 +16789,7 @@
     </row>
     <row r="26" spans="7:8">
       <c r="G26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <f>H4</f>
@@ -16476,7 +16798,7 @@
     </row>
     <row r="27" spans="7:8">
       <c r="G27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H27">
         <f>H5</f>
@@ -16485,7 +16807,7 @@
     </row>
     <row r="28" spans="7:8">
       <c r="G28" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="H28">
         <f>H6</f>
@@ -16494,7 +16816,7 @@
     </row>
     <row r="29" spans="7:8">
       <c r="G29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H29">
         <f>H6+H8</f>
@@ -16503,7 +16825,7 @@
     </row>
     <row r="30" spans="7:8">
       <c r="G30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H30">
         <f>H7</f>
@@ -16512,7 +16834,7 @@
     </row>
     <row r="31" spans="7:8">
       <c r="G31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H31">
         <f t="shared" ref="H31:H42" si="0">H10</f>
@@ -16521,7 +16843,7 @@
     </row>
     <row r="32" spans="7:8">
       <c r="G32" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
@@ -16530,7 +16852,7 @@
     </row>
     <row r="33" spans="7:8">
       <c r="G33" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
@@ -16539,7 +16861,7 @@
     </row>
     <row r="34" spans="7:8">
       <c r="G34" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
@@ -16548,7 +16870,7 @@
     </row>
     <row r="35" spans="7:8">
       <c r="G35" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
@@ -16557,7 +16879,7 @@
     </row>
     <row r="36" spans="7:8">
       <c r="G36" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
@@ -16566,7 +16888,7 @@
     </row>
     <row r="37" spans="7:8">
       <c r="G37" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
@@ -16575,7 +16897,7 @@
     </row>
     <row r="38" spans="7:8">
       <c r="G38" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
@@ -16584,7 +16906,7 @@
     </row>
     <row r="39" spans="7:8">
       <c r="G39" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
@@ -16593,7 +16915,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
@@ -16602,7 +16924,7 @@
     </row>
     <row r="41" spans="7:8">
       <c r="G41" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
@@ -16611,7 +16933,7 @@
     </row>
     <row r="42" spans="7:8">
       <c r="G42" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
@@ -16625,7 +16947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AJ36"/>
@@ -16642,7 +16964,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
-      <c r="A1" s="5" cm="1">
+      <c r="A1" s="4" cm="1">
         <f t="array" ref="A1:A36">_xlfn._xlws.SORT(_xlfn.UNIQUE(Sheet1!P:P))</f>
         <v>0</v>
       </c>
@@ -16748,10 +17070,10 @@
       </c>
     </row>
     <row r="2" spans="1:36">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <f>COUNTIF(Sheet1!P:P,A2)</f>
         <v>4</v>
       </c>
@@ -16856,42 +17178,42 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1947</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>COUNTIF(Sheet1!P:P,A3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1955</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>COUNTIF(Sheet1!P:P,A4)</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1959</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>COUNTIF(Sheet1!P:P,A5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1961</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>COUNTIF(Sheet1!P:P,A6)</f>
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="E6">
         <f>SUM(B2:B7)</f>
@@ -16899,15 +17221,15 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>1962</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <f>COUNTIF(Sheet1!P:P,A7)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>420</v>
+      <c r="D7" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="E7">
         <f>SUM(B8:B9)</f>
@@ -16915,15 +17237,15 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>1964</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <f>COUNTIF(Sheet1!P:P,A8)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>421</v>
+      <c r="D8" s="6" t="s">
+        <v>434</v>
       </c>
       <c r="E8">
         <f>SUM(B10)</f>
@@ -16931,15 +17253,15 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>1966</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <f>COUNTIF(Sheet1!P:P,A9)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>422</v>
+      <c r="D9" s="6" t="s">
+        <v>435</v>
       </c>
       <c r="E9">
         <f>SUM(B11:B13)</f>
@@ -16947,15 +17269,15 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>1968</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <f>COUNTIF(Sheet1!P:P,A10)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>423</v>
+      <c r="D10" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="E10">
         <f>SUM(B14)</f>
@@ -16963,15 +17285,15 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>1970</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <f>COUNTIF(Sheet1!P:P,A11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>424</v>
+      <c r="D11" s="6" t="s">
+        <v>437</v>
       </c>
       <c r="E11">
         <f>SUM(B15:B19)</f>
@@ -16979,15 +17301,15 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>1972</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <f>COUNTIF(Sheet1!P:P,A12)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>425</v>
+      <c r="D12" s="6" t="s">
+        <v>438</v>
       </c>
       <c r="E12">
         <f>SUM(B20:B24)</f>
@@ -16995,15 +17317,15 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>1973</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <f>COUNTIF(Sheet1!P:P,A13)</f>
         <v>4</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>426</v>
+      <c r="D13" s="6" t="s">
+        <v>439</v>
       </c>
       <c r="E13">
         <f>SUM(B25:B31)</f>
@@ -17011,15 +17333,15 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>1974</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <f>COUNTIF(Sheet1!P:P,A14)</f>
         <v>1</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>427</v>
+      <c r="D14" s="6" t="s">
+        <v>440</v>
       </c>
       <c r="E14">
         <f>SUM(B32:B34)</f>
@@ -17027,181 +17349,181 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>1975</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <f>COUNTIF(Sheet1!P:P,A15)</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>1978</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <f>COUNTIF(Sheet1!P:P,A16)</f>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>1979</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <f>COUNTIF(Sheet1!P:P,A17)</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>1980</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <f>COUNTIF(Sheet1!P:P,A18)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>1981</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <f>COUNTIF(Sheet1!P:P,A19)</f>
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>1982</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <f>COUNTIF(Sheet1!P:P,A20)</f>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>1983</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <f>COUNTIF(Sheet1!P:P,A21)</f>
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>1984</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <f>COUNTIF(Sheet1!P:P,A22)</f>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>1985</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <f>COUNTIF(Sheet1!P:P,A23)</f>
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>1987</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <f>COUNTIF(Sheet1!P:P,A24)</f>
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>1988</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <f>COUNTIF(Sheet1!P:P,A25)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <v>1989</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <f>COUNTIF(Sheet1!P:P,A26)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>1990</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <f>COUNTIF(Sheet1!P:P,A27)</f>
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="14">
+      <c r="A28" s="13">
         <v>1991</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <f>COUNTIF(Sheet1!P:P,A28)</f>
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <v>1992</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <f>COUNTIF(Sheet1!P:P,A29)</f>
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>1994</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <f>COUNTIF(Sheet1!P:P,A30)</f>
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="14">
+      <c r="A31" s="13">
         <v>1995</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <f>COUNTIF(Sheet1!P:P,A31)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15">
+      <c r="A32" s="14">
         <v>1996</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <f>COUNTIF(Sheet1!P:P,A32)</f>
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="15">
+      <c r="A33" s="14">
         <v>1997</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <f>COUNTIF(Sheet1!P:P,A33)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="15">
+      <c r="A34" s="14">
         <v>1999</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <f>COUNTIF(Sheet1!P:P,A34)</f>
         <v>1</v>
       </c>
@@ -17223,7 +17545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I69"/>
@@ -17238,8 +17560,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
+      <c r="A1" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:C1">_xlfn.TEXTSPLIT(A1,",")</f>
@@ -17250,8 +17572,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
+      <c r="A2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2:C2">_xlfn.TEXTSPLIT(A2,",")</f>
@@ -17262,8 +17584,8 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
+      <c r="A3" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3:F3">_xlfn.TEXTSPLIT(A3,",")</f>
@@ -17283,8 +17605,8 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>40</v>
+      <c r="A4" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B4" t="str" cm="1">
         <f t="array" ref="B4:F4">_xlfn.TEXTSPLIT(A4,",")</f>
@@ -17304,8 +17626,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
+      <c r="A5" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B5" t="str" cm="1">
         <f t="array" ref="B5:H5">_xlfn.TEXTSPLIT(A5,",")</f>
@@ -17331,8 +17653,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>54</v>
+      <c r="A6" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6:D6">_xlfn.TEXTSPLIT(A6,",")</f>
@@ -17346,8 +17668,8 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>60</v>
+      <c r="A7" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B7" t="str" cm="1">
         <f t="array" ref="B7:H7">_xlfn.TEXTSPLIT(A7,",")</f>
@@ -17373,8 +17695,8 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>67</v>
+      <c r="A8" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B8" t="str" cm="1">
         <f t="array" ref="B8:E8">_xlfn.TEXTSPLIT(A8,",")</f>
@@ -17391,8 +17713,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>73</v>
+      <c r="A9" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B9" t="str" cm="1">
         <f t="array" ref="B9:D9">_xlfn.TEXTSPLIT(A9,",")</f>
@@ -17406,8 +17728,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>82</v>
+      <c r="A10" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B10" t="str" cm="1">
         <f t="array" ref="B10:G10">_xlfn.TEXTSPLIT(A10,",")</f>
@@ -17430,14 +17752,14 @@
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>95</v>
+      <c r="A13" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B13" t="str" cm="1">
         <f t="array" ref="B13:D13">_xlfn.TEXTSPLIT(A13,",")</f>
@@ -17451,8 +17773,8 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>101</v>
+      <c r="A14" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B14" t="str" cm="1">
         <f t="array" ref="B14:E14">_xlfn.TEXTSPLIT(A14,",")</f>
@@ -17469,8 +17791,8 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>107</v>
+      <c r="A15" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B15" t="str" cm="1">
         <f t="array" ref="B15:F15">_xlfn.TEXTSPLIT(A15,",")</f>
@@ -17490,8 +17812,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>112</v>
+      <c r="A16" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B16" t="str" cm="1">
         <f t="array" ref="B16:C16">_xlfn.TEXTSPLIT(A16,",")</f>
@@ -17502,8 +17824,8 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="3" t="s">
-        <v>119</v>
+      <c r="A17" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B17" t="str" cm="1">
         <f t="array" ref="B17:I17">_xlfn.TEXTSPLIT(A17,",")</f>
@@ -17532,8 +17854,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
-        <v>126</v>
+      <c r="A18" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B18" t="str" cm="1">
         <f t="array" ref="B18:D18">_xlfn.TEXTSPLIT(A18,",")</f>
@@ -17547,8 +17869,8 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>133</v>
+      <c r="A19" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B19" t="str" cm="1">
         <f t="array" ref="B19">_xlfn.TEXTSPLIT(A19,",")</f>
@@ -17556,8 +17878,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
-        <v>140</v>
+      <c r="A20" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B20" t="str" cm="1">
         <f t="array" ref="B20:D20">_xlfn.TEXTSPLIT(A20,",")</f>
@@ -17571,8 +17893,8 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
-        <v>145</v>
+      <c r="A21" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21:G21">_xlfn.TEXTSPLIT(A21,",")</f>
@@ -17595,8 +17917,8 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>151</v>
+      <c r="A22" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="B22" t="str" cm="1">
         <f t="array" ref="B22:G22">_xlfn.TEXTSPLIT(A22,",")</f>
@@ -17619,8 +17941,8 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>158</v>
+      <c r="A23" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="B23" t="str" cm="1">
         <f t="array" ref="B23:C23">_xlfn.TEXTSPLIT(A23,",")</f>
@@ -17631,8 +17953,8 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>162</v>
+      <c r="A24" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="B24" t="str" cm="1">
         <f t="array" ref="B24:C24">_xlfn.TEXTSPLIT(A24,",")</f>
@@ -17643,8 +17965,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
-        <v>167</v>
+      <c r="A25" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="B25" t="str" cm="1">
         <f t="array" ref="B25:D25">_xlfn.TEXTSPLIT(A25,",")</f>
@@ -17658,8 +17980,8 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>428</v>
+      <c r="A26" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="B26" t="str" cm="1">
         <f t="array" ref="B26:F26">_xlfn.TEXTSPLIT(A26,",")</f>
@@ -17679,8 +18001,8 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="3" t="s">
-        <v>178</v>
+      <c r="A27" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="B27" t="str" cm="1">
         <f t="array" ref="B27:D27">_xlfn.TEXTSPLIT(A27,",")</f>
@@ -17694,8 +18016,8 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
-        <v>183</v>
+      <c r="A28" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="B28" t="str" cm="1">
         <f t="array" ref="B28">_xlfn.TEXTSPLIT(A28,",")</f>
@@ -17703,8 +18025,8 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>189</v>
+      <c r="A29" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="B29" t="str" cm="1">
         <f t="array" ref="B29:F29">_xlfn.TEXTSPLIT(A29,",")</f>
@@ -17724,8 +18046,8 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="3" t="s">
-        <v>194</v>
+      <c r="A30" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="B30" t="str" cm="1">
         <f t="array" ref="B30:G30">_xlfn.TEXTSPLIT(A30,",")</f>
@@ -17748,8 +18070,8 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
-        <v>199</v>
+      <c r="A31" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="B31" t="str" cm="1">
         <f t="array" ref="B31:F31">_xlfn.TEXTSPLIT(A31,",")</f>
@@ -17769,8 +18091,8 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="3" t="s">
-        <v>206</v>
+      <c r="A32" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="B32" t="str" cm="1">
         <f t="array" ref="B32:E32">_xlfn.TEXTSPLIT(A32,",")</f>
@@ -17787,8 +18109,8 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="3" t="s">
-        <v>211</v>
+      <c r="A33" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="B33" t="str" cm="1">
         <f t="array" ref="B33:E33">_xlfn.TEXTSPLIT(A33,",")</f>
@@ -17805,8 +18127,8 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>216</v>
+      <c r="A34" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="B34" t="str" cm="1">
         <f t="array" ref="B34:C34">_xlfn.TEXTSPLIT(A34,",")</f>
@@ -17817,8 +18139,8 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>221</v>
+      <c r="A35" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="B35" t="str" cm="1">
         <f t="array" ref="B35:D35">_xlfn.TEXTSPLIT(A35,",")</f>
@@ -17832,8 +18154,8 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
-        <v>227</v>
+      <c r="A36" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="B36" t="str" cm="1">
         <f t="array" ref="B36:C36">_xlfn.TEXTSPLIT(A36,",")</f>
@@ -17844,8 +18166,8 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="3" t="s">
-        <v>232</v>
+      <c r="A37" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37:F37">_xlfn.TEXTSPLIT(A37,",")</f>
@@ -17865,8 +18187,8 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3" t="s">
-        <v>239</v>
+      <c r="A38" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="B38" t="str" cm="1">
         <f t="array" ref="B38:F38">_xlfn.TEXTSPLIT(A38,",")</f>
@@ -17886,8 +18208,8 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
-        <v>244</v>
+      <c r="A39" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="B39" t="str" cm="1">
         <f t="array" ref="B39:C39">_xlfn.TEXTSPLIT(A39,",")</f>
@@ -17898,8 +18220,8 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="3" t="s">
-        <v>249</v>
+      <c r="A40" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="B40" t="str" cm="1">
         <f t="array" ref="B40:G40">_xlfn.TEXTSPLIT(A40,",")</f>
@@ -17922,8 +18244,8 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
-        <v>258</v>
+      <c r="A41" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="B41" t="str" cm="1">
         <f t="array" ref="B41">_xlfn.TEXTSPLIT(A41,",")</f>
@@ -17931,8 +18253,8 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="3" t="s">
-        <v>264</v>
+      <c r="A42" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="B42" t="str" cm="1">
         <f t="array" ref="B42:D42">_xlfn.TEXTSPLIT(A42,",")</f>
@@ -17946,8 +18268,8 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="3" t="s">
-        <v>271</v>
+      <c r="A43" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="B43" t="str" cm="1">
         <f t="array" ref="B43:E43">_xlfn.TEXTSPLIT(A43,",")</f>
@@ -17964,8 +18286,8 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
-        <v>276</v>
+      <c r="A44" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="B44" t="str" cm="1">
         <f t="array" ref="B44:D44">_xlfn.TEXTSPLIT(A44,",")</f>
@@ -17979,8 +18301,8 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="3" t="s">
-        <v>280</v>
+      <c r="A45" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="B45" t="str" cm="1">
         <f t="array" ref="B45">_xlfn.TEXTSPLIT(A45,",")</f>
@@ -17988,8 +18310,8 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="3" t="s">
-        <v>285</v>
+      <c r="A46" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="B46" t="str" cm="1">
         <f t="array" ref="B46:F46">_xlfn.TEXTSPLIT(A46,",")</f>
@@ -18009,8 +18331,8 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="3" t="s">
-        <v>288</v>
+      <c r="A47" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="B47" t="str" cm="1">
         <f t="array" ref="B47">_xlfn.TEXTSPLIT(A47,",")</f>
@@ -18018,8 +18340,8 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="3" t="s">
-        <v>292</v>
+      <c r="A48" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="B48" t="str" cm="1">
         <f t="array" ref="B48:E48">_xlfn.TEXTSPLIT(A48,",")</f>
@@ -18036,8 +18358,8 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="3" t="s">
-        <v>296</v>
+      <c r="A49" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="B49" t="str" cm="1">
         <f t="array" ref="B49:D49">_xlfn.TEXTSPLIT(A49,",")</f>
@@ -18051,8 +18373,8 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3" t="s">
-        <v>302</v>
+      <c r="A50" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="B50" t="str" cm="1">
         <f t="array" ref="B50:F50">_xlfn.TEXTSPLIT(A50,",")</f>
@@ -18072,8 +18394,8 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="3" t="s">
-        <v>307</v>
+      <c r="A51" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="B51" t="str" cm="1">
         <f t="array" ref="B51:C51">_xlfn.TEXTSPLIT(A51,",")</f>
@@ -18084,8 +18406,8 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="3" t="s">
-        <v>429</v>
+      <c r="A52" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="B52" t="str" cm="1">
         <f t="array" ref="B52:E52">_xlfn.TEXTSPLIT(A52,",")</f>
@@ -18102,8 +18424,8 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="3" t="s">
-        <v>318</v>
+      <c r="A53" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="B53" t="str" cm="1">
         <f t="array" ref="B53:H53">_xlfn.TEXTSPLIT(A53,",")</f>
@@ -18129,8 +18451,8 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
-        <v>288</v>
+      <c r="A54" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="B54" t="str" cm="1">
         <f t="array" ref="B54">_xlfn.TEXTSPLIT(A54,",")</f>
@@ -18138,8 +18460,8 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="3" t="s">
-        <v>332</v>
+      <c r="A55" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="B55" t="str" cm="1">
         <f t="array" ref="B55:H55">_xlfn.TEXTSPLIT(A55,",")</f>
@@ -18165,8 +18487,8 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="3" t="s">
-        <v>337</v>
+      <c r="A56" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="B56" t="str" cm="1">
         <f t="array" ref="B56:F56">_xlfn.TEXTSPLIT(A56,",")</f>
@@ -18186,8 +18508,8 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="3" t="s">
-        <v>343</v>
+      <c r="A57" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="B57" t="str" cm="1">
         <f t="array" ref="B57:G57">_xlfn.TEXTSPLIT(A57,",")</f>
@@ -18210,8 +18532,8 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="3" t="s">
-        <v>346</v>
+      <c r="A58" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="B58" t="str" cm="1">
         <f t="array" ref="B58">_xlfn.TEXTSPLIT(A58,",")</f>
@@ -18219,8 +18541,8 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="3" t="s">
-        <v>351</v>
+      <c r="A59" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="B59" t="str" cm="1">
         <f t="array" ref="B59:E59">_xlfn.TEXTSPLIT(A59,",")</f>
@@ -18237,8 +18559,8 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="3" t="s">
-        <v>355</v>
+      <c r="A60" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="B60" t="str" cm="1">
         <f t="array" ref="B60:E60">_xlfn.TEXTSPLIT(A60,",")</f>
@@ -18255,8 +18577,8 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="3" t="s">
-        <v>364</v>
+      <c r="A61" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="B61" t="str" cm="1">
         <f t="array" ref="B61:C61">_xlfn.TEXTSPLIT(A61,",")</f>
@@ -18267,8 +18589,8 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="3" t="s">
-        <v>370</v>
+      <c r="A62" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="B62" t="str" cm="1">
         <f t="array" ref="B62:F62">_xlfn.TEXTSPLIT(A62,",")</f>
@@ -18288,8 +18610,8 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="3" t="s">
-        <v>374</v>
+      <c r="A63" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="B63" t="str" cm="1">
         <f t="array" ref="B63">_xlfn.TEXTSPLIT(A63,",")</f>
@@ -18297,8 +18619,8 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="3" t="s">
-        <v>380</v>
+      <c r="A64" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="B64" t="str" cm="1">
         <f t="array" ref="B64:E64">_xlfn.TEXTSPLIT(A64,",")</f>
@@ -18315,8 +18637,8 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="3" t="s">
-        <v>280</v>
+      <c r="A65" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="B65" t="str" cm="1">
         <f t="array" ref="B65">_xlfn.TEXTSPLIT(A65,",")</f>
@@ -18324,8 +18646,8 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="3" t="s">
-        <v>388</v>
+      <c r="A66" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="B66" t="str" cm="1">
         <f t="array" ref="B66">_xlfn.TEXTSPLIT(A66,",")</f>
@@ -18333,8 +18655,8 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="3" t="s">
-        <v>394</v>
+      <c r="A67" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="B67" t="str" cm="1">
         <f t="array" ref="B67:D67">_xlfn.TEXTSPLIT(A67,",")</f>
@@ -18351,115 +18673,6 @@
       <c r="A69" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,B1:H67)</f>
         <v>pop, r&amp;b,rock, hard rock,indie rock, indie pop, psychedelic pop, jangle pop, slacker rock,hard rock, heavy metal, arena rock, pop rock, progressive rock,Latin rock, rock en español, Latin pop, cumbia, hard rock, heavy metal, thrash metal,pop, rock, r&amp;b,alternative rock, power pop, pop rock, indie rock, pop-punk, geek rock, emo,rock, indie rock, pop rock, heartland rock,Americana, folk, Southern rock,Electronic, alternative rock, alternative dance, electro, experimental, Mexican music,hard rock, blues rock, garage rock,rock, pop, art rock, indie rock,hard rock, garage rock, garage punk, power pop, glam rock,rock, k-rock,alternative rock, progressive rock, experimental rock, alternative metal, pop rock, post-hardcore, art rock,punk rock, hardcore punk, garage punk,hardcore punk,punk rock, hardcore punk, pop punk,Nu metal, alternative metal, groove metal, heavy metal, hard rock, post-grunge,alternative rock, indie rock, psychedelic rock, garage rock, punk blues, post-punk,electronic rock, bollywood,gully rap, hip hop,Indian film pop, pop, bollywood,Indie rock, punk rock, pop punk, garage punk, indie pop,East Coast hip hop, psychedelic rap, alternative hip hop,hip hop,Country pop, electropop, funk, Latin pop, pop rock,alternative rock, pop punk, punk rock, emo, skate punk, hard rock,indie rock, electro-soul, folk, art rock, baroque pop,reggaeton, urbano, latin pop, latin trap,electronic, drum and bass, big beat, hip hop,grime, hip hop,hip hop, r&amp;b, pop,country, neotraditional country,electro house, electro, house, glitch, experimental,alternative rock, psychedelic rock, psychedelic pop, experimental rock, indie rock,stoner rock, sludge metal,heavy metal, hard rock, rockabilly, psychobilly, groove metal, rock and roll,folk metal,nigerian pop, alte, r&amp;b,indie rock, indie folk, indie pop, emo-folk,pop, rock, country,rock,rock, pop rock, glam rock, soft rock, blues,classical,heavy metal, thrash metal, funk metal, crossover thrash,funk rock, alternative rock, hard rock,synth-pop, electronic, new wave, alternative rock, alternative dance,country, r&amp;b,pop, rock, folk, hip hop,Música cebolla, Latin alternative, indie pop, bolero, altnerative metal, alternative rock, enka,classical,indie rock, art rock, psychedelic rock, alternative country, Southern rock, jam, Americana,pop, rock, dance, soul, R&amp;B,rock, pop, country, R&amp;B, blues, alternative rock,country,country, soul, Southern rock, bluegrass,Afro pop, Afrobeats, pop, dance,folk rock, Americana,punk rock, post-punk, post-hardcore, hardcore punk, art rock,rockabilly,noise pop, garage rock, indie rock, grunge,rock,jazz,acoustic, flamenco nuevo, instrumental rock</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="25.3153153153153" customWidth="1"/>
-    <col min="2" max="2" width="23.2342342342342" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B1" s="1">
-        <v>30522</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B2" s="1">
-        <v>30890</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B3" s="1">
-        <v>31474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>433</v>
-      </c>
-      <c r="B4" s="1">
-        <v>32393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>434</v>
-      </c>
-      <c r="B5" s="1">
-        <v>33462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>435</v>
-      </c>
-      <c r="B6" s="1">
-        <v>35220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B7" s="1">
-        <v>35752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B8" s="1">
-        <v>37777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>438</v>
-      </c>
-      <c r="B9" s="1">
-        <v>39703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>439</v>
-      </c>
-      <c r="B10" s="1">
-        <v>42692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45030</v>
       </c>
     </row>
   </sheetData>

--- a/tracklist.xlsx
+++ b/tracklist.xlsx
@@ -10159,8 +10159,8 @@
   <sheetPr/>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
@@ -14596,8 +14596,8 @@
   <sheetPr/>
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55"/>
@@ -16430,7 +16430,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:H42"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55" outlineLevelCol="7"/>
@@ -16837,7 +16837,7 @@
         <v>116</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:H42" si="0">H10</f>
+        <f>H10</f>
         <v>1</v>
       </c>
     </row>
@@ -16846,7 +16846,7 @@
         <v>123</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H31:H42" si="0">H11</f>
         <v>1</v>
       </c>
     </row>
@@ -16927,7 +16927,7 @@
         <v>332</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
+        <f>H20</f>
         <v>1</v>
       </c>
     </row>
@@ -16936,7 +16936,7 @@
         <v>362</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
+        <f>H21</f>
         <v>0</v>
       </c>
     </row>

--- a/tracklist.xlsx
+++ b/tracklist.xlsx
@@ -4,17 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21942" windowHeight="9737"/>
+    <workbookView windowWidth="21754" windowHeight="9642" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Metallica albums release dates" sheetId="9" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="duration and representation" sheetId="5" r:id="rId5"/>
-    <sheet name="demographics" sheetId="6" r:id="rId6"/>
-    <sheet name="generation" sheetId="7" r:id="rId7"/>
-    <sheet name="genres" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="duration and representation" sheetId="5" r:id="rId4"/>
+    <sheet name="demographics" sheetId="6" r:id="rId5"/>
+    <sheet name="generation" sheetId="7" r:id="rId6"/>
+    <sheet name="genres" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.6" hidden="1">generation!$D$6:$D$14</definedName>
@@ -47,8 +46,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -59,11 +59,25 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
@@ -2856,6 +2870,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{53c1e8af-a5ea-4d36-8a7c-4a5e978060bc}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3312,6 +3331,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{63f3ddd1-dee2-4518-aeb2-7d1534871247}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3752,6 +3776,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{aefd15b1-952a-4a42-baa2-da27506753b3}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4051,7 +4080,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('duration and representation'!$G$2:$G$6,'duration and representation'!$G$8:$G$14)</c:f>
+              <c:f>('duration and representation'!$G$2:$G$6,demographics!$G$8:$G$14)</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4070,32 +4099,32 @@
                   <c:v>Wherever I May Roam</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Don't Tread on Me</c:v>
+                  <c:v>England</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Through the Never</c:v>
+                  <c:v>South Korea</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Nothing Else Matters</c:v>
+                  <c:v>Scotland</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Of Wolf and Man</c:v>
+                  <c:v>Australia</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>The God That Failed</c:v>
+                  <c:v>India</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>My Friend of Misery</c:v>
+                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>The Struggle Within</c:v>
+                  <c:v>Denmark</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('duration and representation'!$I$2:$I$6,'duration and representation'!$I$8:$I$14)</c:f>
+              <c:f>('duration and representation'!$I$2:$I$6,demographics!$I$8:$I$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4113,27 +4142,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>988</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>827</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>433</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4182</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>883</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4192,6 +4200,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{758eb520-af89-442a-901f-8956acc30f94}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4740,6 +4753,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{9909dc6c-be29-466e-bd29-55c613ae0621}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4971,6 +4989,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{117133ab-ce4b-4126-9320-25ba2be3b1bf}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5583,6 +5606,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{25b1e801-cdca-45a1-8e2e-6bcaa2521b63}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9723,7 +9751,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8119110" y="448945"/>
-          <a:ext cx="4815840" cy="2820670"/>
+          <a:ext cx="8649970" cy="2820670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9754,16 +9782,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>541655</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>165735</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>501015</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>125095</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9771,7 +9799,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8396605" y="3641090"/>
+        <a:off x="13068935" y="86360"/>
         <a:ext cx="4815840" cy="2820670"/>
       </xdr:xfrm>
       <a:graphic>
@@ -9897,6 +9925,24 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>13</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10159,8 +10205,8 @@
   <sheetPr/>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D26"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" topLeftCell="K50" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
@@ -14238,42 +14284,6 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A12:A16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
-  <cols>
-    <col min="1" max="1" width="21.2342342342342" customWidth="1"/>
-    <col min="2" max="2" width="19.2342342342342" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="1:1">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14591,7 +14601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L65"/>
@@ -16424,21 +16434,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31:I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55"/>
   <cols>
     <col min="1" max="1" width="19.1531531531532" customWidth="1"/>
     <col min="2" max="2" width="16.8468468468468" customWidth="1"/>
     <col min="4" max="4" width="19.3783783783784" customWidth="1"/>
     <col min="7" max="7" width="21.6126126126126" customWidth="1"/>
+    <col min="9" max="9" width="63.009009009009" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -16769,7 +16780,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="24" spans="7:8">
+    <row r="24" spans="7:9">
       <c r="G24" t="s">
         <v>26</v>
       </c>
@@ -16777,8 +16788,12 @@
         <f>H2</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="7:8">
+      <c r="I24" t="str" cm="1">
+        <f t="array" ref="I24">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G24))</f>
+        <v>Alessia Cara, Mac DeMarco, PUP</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9">
       <c r="G25" t="s">
         <v>30</v>
       </c>
@@ -16786,8 +16801,12 @@
         <f>H3+H19</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="7:8">
+      <c r="I25" t="str" cm="1">
+        <f t="array" ref="I25">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G25))</f>
+        <v>The Warning, Mexican Institute of Sound, Gera MX, José Madero, Rodrigo y Gabriela</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9">
       <c r="G26" t="s">
         <v>43</v>
       </c>
@@ -16795,8 +16814,12 @@
         <f>H4</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="7:8">
+      <c r="I26" t="str" cm="1">
+        <f t="array" ref="I26">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G26))</f>
+        <v>Ghost, PG Roxette</v>
+      </c>
+    </row>
+    <row r="27" spans="7:9">
       <c r="G27" t="s">
         <v>50</v>
       </c>
@@ -16804,8 +16827,12 @@
         <f>H5</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="7:8">
+      <c r="I27" t="str" cm="1">
+        <f t="array" ref="I27">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G27))</f>
+        <v>Juanes, La Perla, J Balvin</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9">
       <c r="G28" t="s">
         <v>430</v>
       </c>
@@ -16813,8 +16840,12 @@
         <f>H6</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="7:8">
+      <c r="I28" vm="1" t="e" cm="1">
+        <f t="array" ref="I28">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G28))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="7:9">
       <c r="G29" t="s">
         <v>70</v>
       </c>
@@ -16822,8 +16853,12 @@
         <f>H6+H8</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="7:8">
+      <c r="I29" t="str" cm="1">
+        <f t="array" ref="I29">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G29))</f>
+        <v>Sam Fender, Royal Blood, Chase &amp; Status, Backroad Gee, Elton John, Dave Gahan, IDLES</v>
+      </c>
+    </row>
+    <row r="30" spans="7:9">
       <c r="G30" t="s">
         <v>63</v>
       </c>
@@ -16831,8 +16866,12 @@
         <f>H7</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="7:8">
+      <c r="I30" t="str" cm="1">
+        <f t="array" ref="I30">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G30))</f>
+        <v>Weezer, Jason Isbell and the 400 Unit, St. Vincent, White Reaper, Off!, Corey Taylor, Cage the Elephant, Diet Cig, Flatbush Zombies, DJ Scratch, Ha*Ash, Moses Sumney, The Neptunes, Jon Pardi, Portugal. The Man, Aaron Beam, Phoebe Bridgers, Miley Cyrus, Watt, Yo-Yo Ma, Robert Trujillo, Chad Smith, Mickey Guyton, My Morning Jacket, Darius Rucker, Chapel Hart, Chris Stapleton, Goodnight, Texas, Cherry Glazerr, Kamasi Washington</v>
+      </c>
+    </row>
+    <row r="31" spans="7:9">
       <c r="G31" t="s">
         <v>116</v>
       </c>
@@ -16840,8 +16879,12 @@
         <f>H10</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="7:8">
+      <c r="I31" t="str" cm="1">
+        <f t="array" ref="I31">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G31))</f>
+        <v>YB</v>
+      </c>
+    </row>
+    <row r="32" spans="7:9">
       <c r="G32" t="s">
         <v>123</v>
       </c>
@@ -16849,8 +16892,12 @@
         <f t="shared" ref="H31:H42" si="0">H11</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="7:8">
+      <c r="I32" t="str" cm="1">
+        <f t="array" ref="I32">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G32))</f>
+        <v>Biffy Clyro</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
       <c r="G33" t="s">
         <v>130</v>
       </c>
@@ -16858,8 +16905,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="7:8">
+      <c r="I33" t="str" cm="1">
+        <f t="array" ref="I33">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G33))</f>
+        <v>The Chats</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9">
       <c r="G34" t="s">
         <v>162</v>
       </c>
@@ -16867,8 +16918,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="7:8">
+      <c r="I34" t="str" cm="1">
+        <f t="array" ref="I34">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G34))</f>
+        <v>Vishal Dadlani, Divine, Shor Police</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9">
       <c r="G35" t="s">
         <v>238</v>
       </c>
@@ -16876,8 +16931,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="7:8">
+      <c r="I35" t="str" cm="1">
+        <f t="array" ref="I35">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G35))</f>
+        <v>SebastiAn, Izïa</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9">
       <c r="G36" t="s">
         <v>256</v>
       </c>
@@ -16885,8 +16944,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="7:8">
+      <c r="I36" t="str" cm="1">
+        <f t="array" ref="I36">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G36))</f>
+        <v>Volbeat</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9">
       <c r="G37" t="s">
         <v>265</v>
       </c>
@@ -16894,8 +16957,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="7:8">
+      <c r="I37" t="str" cm="1">
+        <f t="array" ref="I37">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G37))</f>
+        <v>The Hu</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9">
       <c r="G38" t="s">
         <v>271</v>
       </c>
@@ -16903,8 +16970,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="7:8">
+      <c r="I38" t="str" cm="1">
+        <f t="array" ref="I38">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G38))</f>
+        <v>Tomi Owó</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9">
       <c r="G39" t="s">
         <v>319</v>
       </c>
@@ -16912,8 +16983,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="7:8">
+      <c r="I39" t="str" cm="1">
+        <f t="array" ref="I39">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G39))</f>
+        <v>Dermot Kennedy, Imelda May</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9">
       <c r="G40" t="s">
         <v>431</v>
       </c>
@@ -16921,23 +16996,35 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="7:8">
+      <c r="I40" vm="1" t="e" cm="1">
+        <f t="array" ref="I40">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G40))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9">
       <c r="G41" t="s">
         <v>332</v>
       </c>
       <c r="H41">
-        <f>H20</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="7:8">
+      <c r="I41" t="str" cm="1">
+        <f t="array" ref="I41">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G41))</f>
+        <v>Igor Levit</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9">
       <c r="G42" t="s">
         <v>362</v>
       </c>
       <c r="H42">
-        <f>H21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="I42" t="str" cm="1">
+        <f t="array" ref="I42">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER(Sheet1!G:G,Sheet1!I:I=G42))</f>
+        <v>Tresor</v>
       </c>
     </row>
   </sheetData>
@@ -16947,13 +17034,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55"/>
@@ -17538,6 +17625,66 @@
         <v>Year of Birth</v>
       </c>
     </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="str" cm="1">
+        <f t="array" ref="A39:A45">_xlfn.UNIQUE(Sheet1!Q:Q)</f>
+        <v>Generation</v>
+      </c>
+      <c r="B39">
+        <f>COUNTIF(Sheet1!Q:Q,A39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="str">
+        <v>Millennial</v>
+      </c>
+      <c r="B40">
+        <f>COUNTIF(Sheet1!Q:Q,A40)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="str">
+        <v>Generation Z</v>
+      </c>
+      <c r="B41">
+        <f>COUNTIF(Sheet1!Q:Q,A41)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="str">
+        <v>Generation X</v>
+      </c>
+      <c r="B42">
+        <f>COUNTIF(Sheet1!Q:Q,A42)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="B43">
+        <f>COUNTIF(Sheet1!Q:Q,A43)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="str">
+        <v>Baby Boomer</v>
+      </c>
+      <c r="B44">
+        <f>COUNTIF(Sheet1!Q:Q,A44)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -17545,12 +17692,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
